--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/geoff_l_mcdonald_gov_bc_ca/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{296B2A36-519A-4DCA-88EE-01D7A02F0113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{528DD185-801B-4052-BD34-1E4295AEF449}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9D2F22-5A2C-48C5-A407-08F0AC8BEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" firstSheet="4" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="Events" sheetId="3" r:id="rId3"/>
     <sheet name="Outcomes" sheetId="4" r:id="rId4"/>
     <sheet name="Actions" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
-    <sheet name="Lookups" sheetId="2" r:id="rId7"/>
+    <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,26 +44,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={47405554-3609-4E18-B64B-0ABEED3E1CCB}</author>
-  </authors>
-  <commentList>
-    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{47405554-3609-4E18-B64B-0ABEED3E1CCB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This will set the anticipated date of either of the given two phases and all the events within the phase will be adjusted accordingly?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="199">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -455,6 +436,9 @@
     <t>PCP Time Limit Extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
     <t>PCP Extended Announcement &amp; Tweet</t>
   </si>
   <si>
@@ -467,9 +451,6 @@
     <t>Time Limit Extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
     <t>Extension Announcement &amp; Tweet</t>
   </si>
   <si>
@@ -602,239 +583,245 @@
     <t>AdditionalParams</t>
   </si>
   <si>
+    <t>Set ANTICIPATED of "Project Notification Review | Project Notification Submission" to thisEventACTUAL +1</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Add a copy of "Submission of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +14</t>
+  </si>
+  <si>
+    <t>Add a copy of "Initial Review of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +21</t>
+  </si>
+  <si>
+    <t>Set all "future" PHASEs to INACTIVE</t>
+  </si>
+  <si>
+    <t>Set all "future" EVENTs in thisPhase to INACTIVE</t>
+  </si>
+  <si>
+    <t>Set workState to WITHDRAWN</t>
+  </si>
+  <si>
+    <t>Set projectActive to FALSE</t>
+  </si>
+  <si>
+    <t>Set the workStartDate to thisEventACTUAL</t>
+  </si>
+  <si>
+    <t>Set the workDecisionMaker to currentMinisterEnvironment</t>
+  </si>
+  <si>
+    <t>Set the workDecisionMaker to currentCEAO</t>
+  </si>
+  <si>
+    <t>Set workState to TERMINATED</t>
+  </si>
+  <si>
+    <t>Set workState to COMPLETE</t>
+  </si>
+  <si>
+    <t>Create a new WORK: "Minister's Designation" and link to thisWorkLinkedProject</t>
+  </si>
+  <si>
+    <t>EA Act</t>
+  </si>
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Event Category</t>
+  </si>
+  <si>
+    <t>Event Position</t>
+  </si>
+  <si>
+    <t>Multiple Days</t>
+  </si>
+  <si>
+    <t>AllEventsDeactivated</t>
+  </si>
+  <si>
+    <t>Minister's Designation</t>
+  </si>
+  <si>
+    <t>EA Act (2002)</t>
+  </si>
+  <si>
+    <t>AllEventsDeleted</t>
+  </si>
+  <si>
+    <t>CEAO's Designation</t>
+  </si>
+  <si>
+    <t>EA Act (1996)</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>CloseEverything</t>
+  </si>
+  <si>
+    <t>EAC Assessment</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>CloseWork</t>
+  </si>
+  <si>
+    <t>Exemption Request</t>
+  </si>
+  <si>
+    <t>CompleteCurrentPhase</t>
+  </si>
+  <si>
+    <t>Dispute Resolution</t>
+  </si>
+  <si>
+    <t>CreateNewWork</t>
+  </si>
+  <si>
+    <t>EAC/Order Amendment</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>DisableWorkStartDate</t>
+  </si>
+  <si>
+    <t>Document Review</t>
+  </si>
+  <si>
+    <t>DuplicatePhase</t>
+  </si>
+  <si>
+    <t>EAC Extension</t>
+  </si>
+  <si>
+    <t>Substantial Start Decision</t>
+  </si>
+  <si>
+    <t>EAC/Order Transfer</t>
+  </si>
+  <si>
+    <t>EAC/Order Suspension</t>
+  </si>
+  <si>
+    <t>EAC/Order Cancellation</t>
+  </si>
+  <si>
+    <t>EAC Ministers</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Capacity Funding</t>
+  </si>
+  <si>
+    <t>Fee Order</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Project Notification Submission", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification" }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review" }</t>
+  </si>
+  <si>
+    <t>{"is_active": false}</t>
+  </si>
+  <si>
+    <t>{"work_state": "WITHDRAWN"}</t>
+  </si>
+  <si>
+    <t>{"position_id": 8}</t>
+  </si>
+  <si>
+    <t>{"position_id": 1}</t>
+  </si>
+  <si>
+    <t>{"work_state": "TERMINATED"}</t>
+  </si>
+  <si>
+    <t>{"work_state": "COMPLETE"}</t>
+  </si>
+  <si>
+    <t>addPhase "Revised Project Notification Intake"(copies of the origal PHASEs)</t>
+  </si>
+  <si>
+    <t>addPhase "Revised Project Notification Review"   (copies of the origal PHASEs)</t>
+  </si>
+  <si>
+    <t>addPhase "Revised Project Notification Decision" (copies of the origal PHASEs)</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Intake", "legislated": false }</t>
+  </si>
+  <si>
+    <t>SetProjectStatus</t>
+  </si>
+  <si>
+    <t>SetWorkState</t>
+  </si>
+  <si>
+    <t>SetEventsStatus</t>
+  </si>
+  <si>
+    <t>SetPhasesStatus</t>
+  </si>
+  <si>
+    <t>CreateWork</t>
+  </si>
+  <si>
+    <t>AddPhase</t>
+  </si>
+  <si>
+    <t>SetWorkDecisionMaker</t>
+  </si>
+  <si>
+    <t>LockWorkStartDate</t>
+  </si>
+  <si>
+    <t>AddEvent</t>
+  </si>
+  <si>
     <t>SetEventDate</t>
-  </si>
-  <si>
-    <t>Set ANTICIPATED of "Project Notification Review | Project Notification Submission" to thisEventACTUAL +1</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Project Notification Submission", "start_at": 1 }</t>
-  </si>
-  <si>
-    <t>AddEvent</t>
-  </si>
-  <si>
-    <t>Add a copy of "Submission of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +21</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification" }</t>
-  </si>
-  <si>
-    <t>Add a copy of "Initial Review of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +28</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review" }</t>
-  </si>
-  <si>
-    <t>SetPhasesStatus</t>
-  </si>
-  <si>
-    <t>Set all "future" PHASEs to INACTIVE</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>SetEventsStatus</t>
-  </si>
-  <si>
-    <t>Set all "future" EVENTs in thisPhase to INACTIVE</t>
-  </si>
-  <si>
-    <t>{"work_state": "WITHDRAWN"}</t>
-  </si>
-  <si>
-    <t>SetWorkState</t>
-  </si>
-  <si>
-    <t>Set workState to WITHDRAWN</t>
-  </si>
-  <si>
-    <t>SetProjectStatus</t>
-  </si>
-  <si>
-    <t>Set projectActive to FALSE</t>
-  </si>
-  <si>
-    <t>LockWorkStartDate</t>
-  </si>
-  <si>
-    <t>Set the workStartDate to thisEventACTUAL</t>
-  </si>
-  <si>
-    <t>SetWorkDecisionMaker</t>
-  </si>
-  <si>
-    <t>Set the workDecisionMaker to currentMinisterEnvironment</t>
-  </si>
-  <si>
-    <t>Set the workDecisionMaker to currentCEAO</t>
-  </si>
-  <si>
-    <t>Set workState to TERMINATED</t>
-  </si>
-  <si>
-    <t>{"work_state": "TERMINATED"}</t>
-  </si>
-  <si>
-    <t>Set workState to COMPLETE</t>
-  </si>
-  <si>
-    <t>{"work_state": "COMPLETE"}</t>
-  </si>
-  <si>
-    <t>AddPhase</t>
-  </si>
-  <si>
-    <t>addPhase "Revised Project Notification Intake", "Revised Project Notification Review"  and "Revised Project Notification Decision" (copies of the origal PHASEs)</t>
-  </si>
-  <si>
-    <t>SetPhaseLegislation</t>
-  </si>
-  <si>
-    <t>Set PHASE "Revised Project Notification Intake", "Revised Project Notification Review"  and "Revised Project Notification Decision" phaseLegislated to FLASE</t>
-  </si>
-  <si>
-    <t>Set (newly created) "Revised Project Notification Intake | Submission of "Draft" Revised Project Notification" to thisEventACTUAL +28</t>
-  </si>
-  <si>
-    <t>CreateWork</t>
-  </si>
-  <si>
-    <t>Create a new WORK: "Minister's Designation" and link to thisWorkLinkedProject</t>
-  </si>
-  <si>
-    <t>setEventsStatus</t>
-  </si>
-  <si>
-    <t>EA Act</t>
-  </si>
-  <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Event Category</t>
-  </si>
-  <si>
-    <t>Event Position</t>
-  </si>
-  <si>
-    <t>Multiple Days</t>
-  </si>
-  <si>
-    <t>AllEventsDeactivated</t>
-  </si>
-  <si>
-    <t>Minister's Designation</t>
-  </si>
-  <si>
-    <t>EA Act (2002)</t>
-  </si>
-  <si>
-    <t>AllEventsDeleted</t>
-  </si>
-  <si>
-    <t>CEAO's Designation</t>
-  </si>
-  <si>
-    <t>EA Act (1996)</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>CloseEverything</t>
-  </si>
-  <si>
-    <t>EAC Assessment</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>CloseWork</t>
-  </si>
-  <si>
-    <t>Exemption Request</t>
-  </si>
-  <si>
-    <t>CompleteCurrentPhase</t>
-  </si>
-  <si>
-    <t>Dispute Resolution</t>
-  </si>
-  <si>
-    <t>CreateNewWork</t>
-  </si>
-  <si>
-    <t>EAC/Order Amendment</t>
-  </si>
-  <si>
-    <t>Request</t>
-  </si>
-  <si>
-    <t>DisableWorkStartDate</t>
-  </si>
-  <si>
-    <t>Document Review</t>
-  </si>
-  <si>
-    <t>DuplicatePhase</t>
-  </si>
-  <si>
-    <t>EAC Extension</t>
-  </si>
-  <si>
-    <t>Substantial Start Decision</t>
-  </si>
-  <si>
-    <t>EAC/Order Transfer</t>
-  </si>
-  <si>
-    <t>EAC/Order Suspension</t>
-  </si>
-  <si>
-    <t>EAC/Order Cancellation</t>
-  </si>
-  <si>
-    <t>EAC Ministers</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Federal</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>Capacity Funding</t>
-  </si>
-  <si>
-    <t>Fee Order</t>
-  </si>
-  <si>
-    <t>Penalties</t>
-  </si>
-  <si>
-    <t>Administrative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,12 +1072,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Peickal Balakrishnan, Dinesh EAO:EX" id="{05F455C8-8C41-4C28-91CE-00143C68DB58}" userId="S::dinesh.peickalbalakrishnan@gov.bc.ca::e47d8df7-41b0-4b66-abe0-97a1d2c617e3" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,14 +1369,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C35" dT="2023-10-23T23:19:55.43" personId="{05F455C8-8C41-4C28-91CE-00143C68DB58}" id="{47405554-3609-4E18-B64B-0ABEED3E1CCB}">
-    <text>This will set the anticipated date of either of the given two phases and all the events within the phase will be adjusted accordingly?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29C4E4-5710-4940-B27E-4A22CAC51666}">
   <sheetPr>
@@ -1405,55 +1378,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1468,24 +1441,24 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1537,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1563,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1589,226 +1562,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93"/>
     </row>
   </sheetData>
@@ -1844,29 +1817,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1946,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1985,7 +1958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2024,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2063,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2102,7 +2075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2141,7 +2114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2180,19 +2153,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF((C9=""),"",VLOOKUP(C9,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Intake</v>
+        <v>Project Notification Review</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>38</v>
@@ -2219,7 +2192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2258,7 +2231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2297,7 +2270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2339,7 +2312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2381,7 +2354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2423,7 +2396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2465,7 +2438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2504,7 +2477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2543,7 +2516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2585,7 +2558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2624,7 +2597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2666,7 +2639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2708,7 +2681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2750,7 +2723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2792,7 +2765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2831,7 +2804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2870,7 +2843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2909,7 +2882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2920,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="6" t="str">
         <f>IF((C27=""),"",VLOOKUP(C27,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -2951,7 +2924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2962,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" s="6" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -2993,7 +2966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3001,17 +2974,17 @@
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E29" s="6" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>39</v>
@@ -3032,7 +3005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3074,7 +3047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3116,7 +3089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3155,7 +3128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3197,7 +3170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3239,7 +3212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3278,7 +3251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3320,7 +3293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3362,7 +3335,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3401,7 +3374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3443,7 +3416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3485,7 +3458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3524,7 +3497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3566,7 +3539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3608,7 +3581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3647,7 +3620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3686,19 +3659,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="C46" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E46" s="6" t="str">
         <f>IF((C46=""),"",VLOOKUP(C46,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Intake</v>
+        <v>Project Notification Decision</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>96</v>
@@ -3725,7 +3698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3764,7 +3737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3806,7 +3779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3845,7 +3818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3853,17 +3826,17 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="6" t="str">
         <f>IF((C50=""),"",VLOOKUP(C50,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>39</v>
@@ -3884,7 +3857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3926,7 +3899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3968,7 +3941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4007,7 +3980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4049,7 +4022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4091,7 +4064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4130,7 +4103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4172,7 +4145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4214,7 +4187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4253,7 +4226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4295,7 +4268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4337,7 +4310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4376,7 +4349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4418,7 +4391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4460,7 +4433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4499,7 +4472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4538,7 +4511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4580,7 +4553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4678,21 +4651,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4709,7 +4682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4727,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4745,7 +4718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4763,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4781,7 +4754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4799,7 +4772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4817,7 +4790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4835,9 +4808,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
         <v>37</v>
@@ -4853,9 +4826,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>40</v>
@@ -4871,9 +4844,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
         <v>65</v>
@@ -4889,9 +4862,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>65</v>
@@ -4907,9 +4880,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
         <v>65</v>
@@ -4925,9 +4898,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>58</v>
@@ -4943,9 +4916,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
         <v>61</v>
@@ -4982,26 +4955,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="179.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="176.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="131.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +4997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5036,19 +5009,19 @@
         <v>Initial Review of "Draft" Project Notification is POSITIVE</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5060,19 +5033,19 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5084,19 +5057,19 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5108,19 +5081,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5132,19 +5105,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5156,21 +5129,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8">
         <v>3</v>
@@ -5180,21 +5153,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>9</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
@@ -5204,21 +5177,21 @@
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
-        <v>12</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
@@ -5228,21 +5201,21 @@
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="G10" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8">
         <v>6</v>
@@ -5252,665 +5225,685 @@
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="G11" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6" t="str">
         <f>IF((B12=""),"",VLOOKUP(B12,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G12" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>IF((B13=""),"",VLOOKUP(B13,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G13" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>IF((B14=""),"",VLOOKUP(B14,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="G14" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>IF((B15=""),"",VLOOKUP(B15,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G15" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>IF((B16=""),"",VLOOKUP(B16,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G16" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G17" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="str">
         <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="G18" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G19" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6" t="str">
         <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>No Further Review Required</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="G20" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="6" t="str">
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>No Further Review Required</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>More Information Needed</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="G22" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>More Information Needed</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="G23" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>More Information Needed</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="G24" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="6" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="G25" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G26" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G27" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G28" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="G29" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="6" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G30" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="6" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G31" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="6" t="str">
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G32" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="G33" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="6" t="str">
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G34" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68"/>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69"/>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70"/>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71"/>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72"/>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73"/>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74"/>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75"/>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76"/>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77"/>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78"/>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79"/>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80"/>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81"/>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82"/>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83"/>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84"/>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H34" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
+  <autoFilter ref="A1:G34" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5928,81 +5921,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C5D409-F494-46BE-9FE0-B86DA9190549}">
-  <dimension ref="C1:C35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:3">
-      <c r="C1" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="3:3">
-      <c r="C2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE27281F-AEB4-48A9-B0E8-27AC02018115}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -6011,41 +5929,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.85546875" style="4"/>
-    <col min="60" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.88671875" style="4"/>
+    <col min="60" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1"/>
-    <row r="2" spans="1:59" s="1" customFormat="1">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -6054,11 +5972,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -6070,11 +5988,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -6117,7 +6035,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -6140,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>36</v>
@@ -6149,12 +6067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -6172,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>39</v>
@@ -6181,49 +6099,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>35</v>
@@ -6235,12 +6153,12 @@
         <v>54</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>35</v>
@@ -6249,32 +6167,32 @@
         <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>35</v>
@@ -6283,12 +6201,12 @@
         <v>38</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>35</v>
@@ -6298,9 +6216,9 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
@@ -6310,33 +6228,33 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>81</v>
@@ -6346,7 +6264,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
@@ -6357,15 +6275,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
@@ -6373,7 +6291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
@@ -6381,15 +6299,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="4" t="s">
         <v>42</v>
       </c>
@@ -6397,7 +6315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="8:9">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="4" t="s">
         <v>42</v>
       </c>
@@ -6405,23 +6323,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="8:9">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="4" t="s">
         <v>42</v>
       </c>
@@ -6429,7 +6347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="8:9">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
@@ -6437,7 +6355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="8:9">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="4" t="s">
         <v>54</v>
       </c>
@@ -6445,7 +6363,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="8:9">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6453,7 +6371,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="8:9">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="4" t="s">
         <v>54</v>
       </c>
@@ -6461,7 +6379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="8:9">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="4" t="s">
         <v>57</v>
       </c>
@@ -6469,7 +6387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="8:9">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="4" t="s">
         <v>57</v>
       </c>
@@ -6477,23 +6395,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="8:9">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34" s="4" t="s">
         <v>57</v>
       </c>
@@ -6501,41 +6419,41 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="8:9">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>46</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9D2F22-5A2C-48C5-A407-08F0AC8BEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689AA532-EFF5-46BF-998D-F15A9FB9A96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="199">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -436,21 +436,21 @@
     <t>PCP Time Limit Extension</t>
   </si>
   <si>
+    <t>PCP Extended Announcement &amp; Tweet</t>
+  </si>
+  <si>
+    <t>PCP Extended Milestone Bullet</t>
+  </si>
+  <si>
+    <t>s.38 Extension of Time Limit</t>
+  </si>
+  <si>
+    <t>Time Limit Extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
-    <t>PCP Extended Announcement &amp; Tweet</t>
-  </si>
-  <si>
-    <t>PCP Extended Milestone Bullet</t>
-  </si>
-  <si>
-    <t>s.38 Extension of Time Limit</t>
-  </si>
-  <si>
-    <t>Time Limit Extension</t>
-  </si>
-  <si>
     <t>Extension Announcement &amp; Tweet</t>
   </si>
   <si>
@@ -583,45 +583,111 @@
     <t>AdditionalParams</t>
   </si>
   <si>
+    <t>SetEventDate</t>
+  </si>
+  <si>
     <t>Set ANTICIPATED of "Project Notification Review | Project Notification Submission" to thisEventACTUAL +1</t>
   </si>
   <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Project Notification Submission", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>AddEvent</t>
+  </si>
+  <si>
+    <t>Add a copy of "Submission of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +14</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification" }</t>
+  </si>
+  <si>
+    <t>Add a copy of "Initial Review of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +21</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review" }</t>
+  </si>
+  <si>
+    <t>SetPhasesStatus</t>
+  </si>
+  <si>
+    <t>Set all "future" PHASEs to INACTIVE</t>
+  </si>
+  <si>
+    <t>{"is_active": false}</t>
+  </si>
+  <si>
+    <t>SetEventsStatus</t>
+  </si>
+  <si>
+    <t>Set all "future" EVENTs in thisPhase to INACTIVE</t>
+  </si>
+  <si>
+    <t>SetWorkState</t>
+  </si>
+  <si>
+    <t>Set workState to WITHDRAWN</t>
+  </si>
+  <si>
+    <t>{"work_state": "WITHDRAWN"}</t>
+  </si>
+  <si>
+    <t>SetProjectStatus</t>
+  </si>
+  <si>
+    <t>Set projectActive to FALSE</t>
+  </si>
+  <si>
+    <t>LockWorkStartDate</t>
+  </si>
+  <si>
+    <t>Set the workStartDate to thisEventACTUAL</t>
+  </si>
+  <si>
     <t>{}</t>
   </si>
   <si>
-    <t>Add a copy of "Submission of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +14</t>
-  </si>
-  <si>
-    <t>Add a copy of "Initial Review of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +21</t>
-  </si>
-  <si>
-    <t>Set all "future" PHASEs to INACTIVE</t>
-  </si>
-  <si>
-    <t>Set all "future" EVENTs in thisPhase to INACTIVE</t>
-  </si>
-  <si>
-    <t>Set workState to WITHDRAWN</t>
-  </si>
-  <si>
-    <t>Set projectActive to FALSE</t>
-  </si>
-  <si>
-    <t>Set the workStartDate to thisEventACTUAL</t>
+    <t>SetWorkDecisionMaker</t>
   </si>
   <si>
     <t>Set the workDecisionMaker to currentMinisterEnvironment</t>
   </si>
   <si>
+    <t>{"position_id": 8}</t>
+  </si>
+  <si>
     <t>Set the workDecisionMaker to currentCEAO</t>
   </si>
   <si>
+    <t>{"position_id": 1}</t>
+  </si>
+  <si>
     <t>Set workState to TERMINATED</t>
   </si>
   <si>
+    <t>{"work_state": "TERMINATED"}</t>
+  </si>
+  <si>
     <t>Set workState to COMPLETE</t>
   </si>
   <si>
+    <t>AddPhase</t>
+  </si>
+  <si>
+    <t>addPhase "Revised Project Notification Intake"(copies of the origal PHASEs)</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Intake", "legislated": false }</t>
+  </si>
+  <si>
+    <t>addPhase "Revised Project Notification Review"   (copies of the origal PHASEs)</t>
+  </si>
+  <si>
+    <t>addPhase "Revised Project Notification Decision" (copies of the origal PHASEs)</t>
+  </si>
+  <si>
+    <t>CreateWork</t>
+  </si>
+  <si>
     <t>Create a new WORK: "Minister's Designation" and link to thisWorkLinkedProject</t>
   </si>
   <si>
@@ -748,73 +814,7 @@
     <t>Administrative</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Project Notification Submission", "start_at": 1 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification" }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review" }</t>
-  </si>
-  <si>
-    <t>{"is_active": false}</t>
-  </si>
-  <si>
-    <t>{"work_state": "WITHDRAWN"}</t>
-  </si>
-  <si>
-    <t>{"position_id": 8}</t>
-  </si>
-  <si>
-    <t>{"position_id": 1}</t>
-  </si>
-  <si>
-    <t>{"work_state": "TERMINATED"}</t>
-  </si>
-  <si>
-    <t>{"work_state": "COMPLETE"}</t>
-  </si>
-  <si>
-    <t>addPhase "Revised Project Notification Intake"(copies of the origal PHASEs)</t>
-  </si>
-  <si>
-    <t>addPhase "Revised Project Notification Review"   (copies of the origal PHASEs)</t>
-  </si>
-  <si>
-    <t>addPhase "Revised Project Notification Decision" (copies of the origal PHASEs)</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Intake", "legislated": false }</t>
-  </si>
-  <si>
-    <t>SetProjectStatus</t>
-  </si>
-  <si>
-    <t>SetWorkState</t>
-  </si>
-  <si>
-    <t>SetEventsStatus</t>
-  </si>
-  <si>
-    <t>SetPhasesStatus</t>
-  </si>
-  <si>
-    <t>CreateWork</t>
-  </si>
-  <si>
-    <t>AddPhase</t>
-  </si>
-  <si>
-    <t>SetWorkDecisionMaker</t>
-  </si>
-  <si>
-    <t>LockWorkStartDate</t>
-  </si>
-  <si>
-    <t>AddEvent</t>
-  </si>
-  <si>
-    <t>SetEventDate</t>
+    <t>{"work_state": "COMPLETED"}</t>
   </si>
 </sst>
 </file>
@@ -2893,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="6" t="str">
         <f>IF((C27=""),"",VLOOKUP(C27,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -2935,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="6" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -2974,17 +2974,17 @@
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="6" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>39</v>
@@ -3826,17 +3826,17 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="6" t="str">
         <f>IF((C50=""),"",VLOOKUP(C50,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>39</v>
@@ -4653,7 +4653,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8">
         <v>37</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8">
         <v>40</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8">
         <v>65</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>65</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8">
         <v>65</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8">
         <v>58</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8">
         <v>61</v>
@@ -4953,13 +4953,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5009,13 +5009,13 @@
         <v>Initial Review of "Draft" Project Notification is POSITIVE</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -5033,13 +5033,13 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -5057,13 +5057,13 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -5081,13 +5081,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -5105,13 +5105,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -5129,13 +5129,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -5153,13 +5153,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -5177,13 +5177,13 @@
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -5201,13 +5201,13 @@
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -5225,13 +5225,13 @@
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -5249,13 +5249,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -5273,13 +5273,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -5297,13 +5297,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
@@ -5321,13 +5321,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
@@ -5342,16 +5342,16 @@
       </c>
       <c r="C16" s="6" t="str">
         <f>IF((B16=""),"",VLOOKUP(B16,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
@@ -5366,16 +5366,16 @@
       </c>
       <c r="C17" s="6" t="str">
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
@@ -5390,16 +5390,16 @@
       </c>
       <c r="C18" s="6" t="str">
         <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
@@ -5414,16 +5414,16 @@
       </c>
       <c r="C19" s="6" t="str">
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
@@ -5438,16 +5438,16 @@
       </c>
       <c r="C20" s="6" t="str">
         <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>No Further Review Required</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
@@ -5462,16 +5462,16 @@
       </c>
       <c r="C21" s="6" t="str">
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>No Further Review Required</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
@@ -5482,20 +5482,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
@@ -5506,23 +5506,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="G23" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -5534,19 +5534,19 @@
       </c>
       <c r="C24" s="6" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <v>No Further Review Required</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G24" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -5554,20 +5554,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="6" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Referred to Minister (s.11)</v>
+        <v>No Further Review Required</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
@@ -5582,16 +5582,16 @@
       </c>
       <c r="C26" s="6" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Referred to Minister (s.11)</v>
+        <v>More Information Needed</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
@@ -5602,23 +5602,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>More Information Needed</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G27" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -5626,23 +5626,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>More Information Needed</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G28" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -5654,19 +5654,19 @@
       </c>
       <c r="C29" s="6" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G29" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -5678,19 +5678,19 @@
       </c>
       <c r="C30" s="6" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="G30" s="3">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -5702,19 +5702,19 @@
       </c>
       <c r="C31" s="6" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G31" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -5726,19 +5726,19 @@
       </c>
       <c r="C32" s="6" t="str">
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G32" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -5750,19 +5750,19 @@
       </c>
       <c r="C33" s="6" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G33" s="3">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -5774,133 +5774,128 @@
       </c>
       <c r="C34" s="6" t="str">
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8">
+        <v>14</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="D35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>14</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="B37" s="8">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="3">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <v>14</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="3">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
+      <c r="D39"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D59"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D78"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D79"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D82"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D83"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D84"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D85"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D42"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G34" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
@@ -5912,7 +5907,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B34</xm:sqref>
+          <xm:sqref>B2:B38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5963,7 +5958,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5972,11 +5967,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -5988,11 +5983,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -6058,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>36</v>
@@ -6069,10 +6064,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -6090,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>39</v>
@@ -6101,22 +6096,22 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>49</v>
@@ -6124,24 +6119,24 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>35</v>
@@ -6153,12 +6148,12 @@
         <v>54</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>35</v>
@@ -6167,32 +6162,32 @@
         <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>35</v>
@@ -6201,12 +6196,12 @@
         <v>38</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>35</v>
@@ -6218,7 +6213,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
@@ -6230,22 +6225,22 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>71</v>
@@ -6254,7 +6249,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>81</v>
@@ -6280,7 +6275,7 @@
         <v>42</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
@@ -6304,7 +6299,7 @@
         <v>42</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -6328,7 +6323,7 @@
         <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -6336,7 +6331,7 @@
         <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
@@ -6400,7 +6395,7 @@
         <v>57</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -6408,7 +6403,7 @@
         <v>57</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -6421,39 +6416,39 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>46</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689AA532-EFF5-46BF-998D-F15A9FB9A96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2492B43-4F45-43D3-979F-E51D75366409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="200">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -598,15 +598,9 @@
     <t>Add a copy of "Submission of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +14</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification" }</t>
-  </si>
-  <si>
     <t>Add a copy of "Initial Review of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +21</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review" }</t>
-  </si>
-  <si>
     <t>SetPhasesStatus</t>
   </si>
   <si>
@@ -815,6 +809,15 @@
   </si>
   <si>
     <t>{"work_state": "COMPLETED"}</t>
+  </si>
+  <si>
+    <t>{"start_date_locked": true}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 21 }</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1824,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4653,7 +4656,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4956,10 +4959,10 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4969,7 +4972,7 @@
     <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="176.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="131.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="140" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -5039,7 +5042,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -5060,10 +5063,10 @@
         <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -5081,13 +5084,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -5105,13 +5108,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -5129,13 +5132,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -5153,13 +5156,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -5177,13 +5180,13 @@
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -5201,13 +5204,13 @@
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -5225,13 +5228,13 @@
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -5249,13 +5252,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -5273,13 +5276,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -5297,13 +5300,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
@@ -5321,13 +5324,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
@@ -5345,13 +5348,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
@@ -5369,13 +5372,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
@@ -5393,13 +5396,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
@@ -5417,13 +5420,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
@@ -5441,13 +5444,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
@@ -5465,13 +5468,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
@@ -5489,13 +5492,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
@@ -5513,13 +5516,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G23" s="3">
         <v>22</v>
@@ -5537,13 +5540,13 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G24" s="3">
         <v>23</v>
@@ -5561,13 +5564,13 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
@@ -5585,13 +5588,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
@@ -5609,13 +5612,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G27" s="3">
         <v>26</v>
@@ -5633,13 +5636,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
@@ -5657,13 +5660,13 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G29" s="3">
         <v>28</v>
@@ -5681,13 +5684,13 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G30" s="3">
         <v>29</v>
@@ -5705,13 +5708,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G31" s="3">
         <v>30</v>
@@ -5729,13 +5732,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G32" s="3">
         <v>31</v>
@@ -5753,13 +5756,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G33" s="3">
         <v>32</v>
@@ -5777,13 +5780,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G34" s="3">
         <v>33</v>
@@ -5801,13 +5804,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G35" s="3">
         <v>34</v>
@@ -5825,13 +5828,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G36" s="3">
         <v>35</v>
@@ -5849,13 +5852,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G37" s="3">
         <v>36</v>
@@ -5873,13 +5876,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G38" s="3">
         <v>37</v>
@@ -5958,7 +5961,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5967,11 +5970,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -5983,11 +5986,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -6053,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>36</v>
@@ -6064,10 +6067,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -6085,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>39</v>
@@ -6096,22 +6099,22 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>49</v>
@@ -6119,24 +6122,24 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>35</v>
@@ -6148,12 +6151,12 @@
         <v>54</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>35</v>
@@ -6165,29 +6168,29 @@
         <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>35</v>
@@ -6196,12 +6199,12 @@
         <v>38</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>35</v>
@@ -6213,7 +6216,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
@@ -6225,7 +6228,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>76</v>
@@ -6237,7 +6240,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>76</v>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>81</v>
@@ -6275,7 +6278,7 @@
         <v>42</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
@@ -6299,7 +6302,7 @@
         <v>42</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -6323,7 +6326,7 @@
         <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -6331,7 +6334,7 @@
         <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
@@ -6395,7 +6398,7 @@
         <v>57</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -6403,7 +6406,7 @@
         <v>57</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -6416,39 +6419,39 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>46</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/geoff_l_mcdonald_gov_bc_ca/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{296B2A36-519A-4DCA-88EE-01D7A02F0113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{528DD185-801B-4052-BD34-1E4295AEF449}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2492B43-4F45-43D3-979F-E51D75366409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" firstSheet="4" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="Events" sheetId="3" r:id="rId3"/>
     <sheet name="Outcomes" sheetId="4" r:id="rId4"/>
     <sheet name="Actions" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
-    <sheet name="Lookups" sheetId="2" r:id="rId7"/>
+    <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,26 +44,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={47405554-3609-4E18-B64B-0ABEED3E1CCB}</author>
-  </authors>
-  <commentList>
-    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{47405554-3609-4E18-B64B-0ABEED3E1CCB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This will set the anticipated date of either of the given two phases and all the events within the phase will be adjusted accordingly?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="200">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -614,16 +595,10 @@
     <t>AddEvent</t>
   </si>
   <si>
-    <t>Add a copy of "Submission of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +21</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification" }</t>
-  </si>
-  <si>
-    <t>Add a copy of "Initial Review of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +28</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review" }</t>
+    <t>Add a copy of "Submission of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +14</t>
+  </si>
+  <si>
+    <t>Add a copy of "Initial Review of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +21</t>
   </si>
   <si>
     <t>SetPhasesStatus</t>
@@ -632,45 +607,54 @@
     <t>Set all "future" PHASEs to INACTIVE</t>
   </si>
   <si>
+    <t>{"is_active": false}</t>
+  </si>
+  <si>
+    <t>SetEventsStatus</t>
+  </si>
+  <si>
+    <t>Set all "future" EVENTs in thisPhase to INACTIVE</t>
+  </si>
+  <si>
+    <t>SetWorkState</t>
+  </si>
+  <si>
+    <t>Set workState to WITHDRAWN</t>
+  </si>
+  <si>
+    <t>{"work_state": "WITHDRAWN"}</t>
+  </si>
+  <si>
+    <t>SetProjectStatus</t>
+  </si>
+  <si>
+    <t>Set projectActive to FALSE</t>
+  </si>
+  <si>
+    <t>LockWorkStartDate</t>
+  </si>
+  <si>
+    <t>Set the workStartDate to thisEventACTUAL</t>
+  </si>
+  <si>
     <t>{}</t>
   </si>
   <si>
-    <t>SetEventsStatus</t>
-  </si>
-  <si>
-    <t>Set all "future" EVENTs in thisPhase to INACTIVE</t>
-  </si>
-  <si>
-    <t>{"work_state": "WITHDRAWN"}</t>
-  </si>
-  <si>
-    <t>SetWorkState</t>
-  </si>
-  <si>
-    <t>Set workState to WITHDRAWN</t>
-  </si>
-  <si>
-    <t>SetProjectStatus</t>
-  </si>
-  <si>
-    <t>Set projectActive to FALSE</t>
-  </si>
-  <si>
-    <t>LockWorkStartDate</t>
-  </si>
-  <si>
-    <t>Set the workStartDate to thisEventACTUAL</t>
-  </si>
-  <si>
     <t>SetWorkDecisionMaker</t>
   </si>
   <si>
     <t>Set the workDecisionMaker to currentMinisterEnvironment</t>
   </si>
   <si>
+    <t>{"position_id": 8}</t>
+  </si>
+  <si>
     <t>Set the workDecisionMaker to currentCEAO</t>
   </si>
   <si>
+    <t>{"position_id": 1}</t>
+  </si>
+  <si>
     <t>Set workState to TERMINATED</t>
   </si>
   <si>
@@ -680,22 +664,19 @@
     <t>Set workState to COMPLETE</t>
   </si>
   <si>
-    <t>{"work_state": "COMPLETE"}</t>
-  </si>
-  <si>
     <t>AddPhase</t>
   </si>
   <si>
-    <t>addPhase "Revised Project Notification Intake", "Revised Project Notification Review"  and "Revised Project Notification Decision" (copies of the origal PHASEs)</t>
-  </si>
-  <si>
-    <t>SetPhaseLegislation</t>
-  </si>
-  <si>
-    <t>Set PHASE "Revised Project Notification Intake", "Revised Project Notification Review"  and "Revised Project Notification Decision" phaseLegislated to FLASE</t>
-  </si>
-  <si>
-    <t>Set (newly created) "Revised Project Notification Intake | Submission of "Draft" Revised Project Notification" to thisEventACTUAL +28</t>
+    <t>addPhase "Revised Project Notification Intake"(copies of the origal PHASEs)</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Intake", "legislated": false }</t>
+  </si>
+  <si>
+    <t>addPhase "Revised Project Notification Review"   (copies of the origal PHASEs)</t>
+  </si>
+  <si>
+    <t>addPhase "Revised Project Notification Decision" (copies of the origal PHASEs)</t>
   </si>
   <si>
     <t>CreateWork</t>
@@ -704,9 +685,6 @@
     <t>Create a new WORK: "Minister's Designation" and link to thisWorkLinkedProject</t>
   </si>
   <si>
-    <t>setEventsStatus</t>
-  </si>
-  <si>
     <t>EA Act</t>
   </si>
   <si>
@@ -828,13 +806,25 @@
   </si>
   <si>
     <t>Administrative</t>
+  </si>
+  <si>
+    <t>{"work_state": "COMPLETED"}</t>
+  </si>
+  <si>
+    <t>{"start_date_locked": true}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 21 }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,12 +1075,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Peickal Balakrishnan, Dinesh EAO:EX" id="{05F455C8-8C41-4C28-91CE-00143C68DB58}" userId="S::dinesh.peickalbalakrishnan@gov.bc.ca::e47d8df7-41b0-4b66-abe0-97a1d2c617e3" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,14 +1372,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C35" dT="2023-10-23T23:19:55.43" personId="{05F455C8-8C41-4C28-91CE-00143C68DB58}" id="{47405554-3609-4E18-B64B-0ABEED3E1CCB}">
-    <text>This will set the anticipated date of either of the given two phases and all the events within the phase will be adjusted accordingly?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29C4E4-5710-4940-B27E-4A22CAC51666}">
   <sheetPr>
@@ -1405,55 +1381,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1468,24 +1444,24 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1537,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1563,7 +1539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1589,226 +1565,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93"/>
     </row>
   </sheetData>
@@ -1844,29 +1820,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1946,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1985,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2024,7 +2000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2063,7 +2039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2102,7 +2078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2141,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2180,19 +2156,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF((C9=""),"",VLOOKUP(C9,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Intake</v>
+        <v>Project Notification Review</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>38</v>
@@ -2219,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2258,7 +2234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2297,7 +2273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2339,7 +2315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2381,7 +2357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2423,7 +2399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2465,7 +2441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2504,7 +2480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2543,7 +2519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2585,7 +2561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2624,7 +2600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2666,7 +2642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2708,7 +2684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2750,7 +2726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2792,7 +2768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2831,7 +2807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2870,7 +2846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2909,7 +2885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2951,7 +2927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2993,7 +2969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3032,7 +3008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3074,7 +3050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3116,7 +3092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3155,7 +3131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3197,7 +3173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3239,7 +3215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3278,7 +3254,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3320,7 +3296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3362,7 +3338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3401,7 +3377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3443,7 +3419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3485,7 +3461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3524,7 +3500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3566,7 +3542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3608,7 +3584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3647,7 +3623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3686,19 +3662,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="C46" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E46" s="6" t="str">
         <f>IF((C46=""),"",VLOOKUP(C46,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Intake</v>
+        <v>Project Notification Decision</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>96</v>
@@ -3725,7 +3701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3764,7 +3740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3806,7 +3782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3845,7 +3821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3884,7 +3860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3926,7 +3902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3968,7 +3944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4007,7 +3983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4049,7 +4025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4091,7 +4067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4130,7 +4106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4172,7 +4148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4214,7 +4190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4253,7 +4229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4295,7 +4271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4337,7 +4313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4376,7 +4352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4418,7 +4394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4460,7 +4436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4499,7 +4475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4538,7 +4514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4580,7 +4556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4678,21 +4654,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4709,7 +4685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4727,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4745,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4763,7 +4739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4781,7 +4757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4799,7 +4775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4817,7 +4793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4835,7 +4811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4853,7 +4829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4871,7 +4847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4889,7 +4865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4907,7 +4883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4925,7 +4901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4943,7 +4919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4980,28 +4956,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="179.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="176.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="140" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5048,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5066,13 +5042,13 @@
         <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5087,16 +5063,16 @@
         <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5108,19 +5084,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5132,19 +5108,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5156,21 +5132,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8">
         <v>3</v>
@@ -5180,21 +5156,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>9</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
@@ -5204,21 +5180,21 @@
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="G9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
-        <v>12</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
@@ -5228,21 +5204,21 @@
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G10" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8">
         <v>6</v>
@@ -5252,665 +5228,680 @@
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G11" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6" t="str">
         <f>IF((B12=""),"",VLOOKUP(B12,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G12" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>IF((B13=""),"",VLOOKUP(B13,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>IF((B14=""),"",VLOOKUP(B14,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G14" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>IF((B15=""),"",VLOOKUP(B15,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G15" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>IF((B16=""),"",VLOOKUP(B16,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G16" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G17" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="str">
         <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G18" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6" t="str">
         <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>No Further Review Required</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G20" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="6" t="str">
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>No Further Review Required</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G22" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G23" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <v>No Further Review Required</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="G24" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="6" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Referred to Minister (s.11)</v>
+        <v>No Further Review Required</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G25" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Referred to Minister (s.11)</v>
+        <v>More Information Needed</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="G26" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>More Information Needed</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="G27" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>More Information Needed</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="G28" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="G29" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="6" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G30" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="6" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G31" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="6" t="str">
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G32" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G33" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="6" t="str">
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8">
+        <v>14</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$15,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>14</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59"/>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78"/>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79"/>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82"/>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83"/>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84"/>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85"/>
+      <c r="F36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <v>14</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H34" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
+  <autoFilter ref="A1:G34" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5919,7 +5910,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B34</xm:sqref>
+          <xm:sqref>B2:B38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5928,81 +5919,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C5D409-F494-46BE-9FE0-B86DA9190549}">
-  <dimension ref="C1:C35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:3">
-      <c r="C1" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="3:3">
-      <c r="C2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE27281F-AEB4-48A9-B0E8-27AC02018115}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -6011,41 +5927,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.85546875" style="4"/>
-    <col min="60" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.88671875" style="4"/>
+    <col min="60" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1"/>
-    <row r="2" spans="1:59" s="1" customFormat="1">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -6054,11 +5970,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -6070,11 +5986,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -6117,7 +6033,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -6140,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>36</v>
@@ -6149,12 +6065,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -6172,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>39</v>
@@ -6181,49 +6097,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="O6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59">
-      <c r="B7" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>35</v>
@@ -6235,12 +6151,12 @@
         <v>54</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59">
-      <c r="B8" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>35</v>
@@ -6252,29 +6168,29 @@
         <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59">
-      <c r="B9" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59">
-      <c r="B10" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>35</v>
@@ -6283,12 +6199,12 @@
         <v>38</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59">
-      <c r="B11" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>35</v>
@@ -6298,9 +6214,9 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
@@ -6310,9 +6226,9 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>76</v>
@@ -6322,9 +6238,9 @@
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>76</v>
@@ -6334,9 +6250,9 @@
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>81</v>
@@ -6346,7 +6262,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
@@ -6357,15 +6273,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
@@ -6373,7 +6289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
@@ -6381,15 +6297,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="4" t="s">
         <v>42</v>
       </c>
@@ -6397,7 +6313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="8:9">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="4" t="s">
         <v>42</v>
       </c>
@@ -6405,23 +6321,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="8:9">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="4" t="s">
         <v>42</v>
       </c>
@@ -6429,7 +6345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="8:9">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
@@ -6437,7 +6353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="8:9">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="4" t="s">
         <v>54</v>
       </c>
@@ -6445,7 +6361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="8:9">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6453,7 +6369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="8:9">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="4" t="s">
         <v>54</v>
       </c>
@@ -6461,7 +6377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="8:9">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="4" t="s">
         <v>57</v>
       </c>
@@ -6469,7 +6385,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="8:9">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="4" t="s">
         <v>57</v>
       </c>
@@ -6477,23 +6393,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="8:9">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34" s="4" t="s">
         <v>57</v>
       </c>
@@ -6501,41 +6417,41 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="8:9">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I36" s="2" t="s">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="8:9">
-      <c r="H37" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I37" s="2" t="s">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="8:9">
-      <c r="H38" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>46</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aot\EPIC-FLOW\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689AA532-EFF5-46BF-998D-F15A9FB9A96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB46E0E-92A6-4DB8-A7D5-D2EBFF1A09A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -29,23 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="200">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -598,15 +587,9 @@
     <t>Add a copy of "Submission of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +14</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification" }</t>
-  </si>
-  <si>
     <t>Add a copy of "Initial Review of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +21</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review" }</t>
-  </si>
-  <si>
     <t>SetPhasesStatus</t>
   </si>
   <si>
@@ -815,6 +798,15 @@
   </si>
   <si>
     <t>{"work_state": "COMPLETED"}</t>
+  </si>
+  <si>
+    <t>{"start_date_locked": true}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 21 }</t>
   </si>
 </sst>
 </file>
@@ -1378,55 +1370,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1447,18 +1439,18 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1510,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1536,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1562,226 +1554,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93"/>
     </row>
   </sheetData>
@@ -1824,22 +1816,22 @@
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1880,7 +1872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1919,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1958,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1997,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2036,7 +2028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2075,7 +2067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2114,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2153,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2192,7 +2184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2231,7 +2223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2270,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2312,7 +2304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2354,7 +2346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2396,7 +2388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2438,7 +2430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2477,7 +2469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2516,7 +2508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2558,7 +2550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2597,7 +2589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2639,7 +2631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2681,7 +2673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2723,7 +2715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2765,7 +2757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2804,7 +2796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2843,7 +2835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2882,7 +2874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2924,7 +2916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2966,7 +2958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3005,7 +2997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3047,7 +3039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3089,7 +3081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3128,7 +3120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3170,7 +3162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3212,7 +3204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3251,7 +3243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3293,7 +3285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3335,7 +3327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3374,7 +3366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3416,7 +3408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3458,7 +3450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3497,7 +3489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3539,7 +3531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3581,7 +3573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3620,7 +3612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3659,7 +3651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3698,7 +3690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3737,7 +3729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3779,7 +3771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3818,7 +3810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3857,7 +3849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3899,7 +3891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3941,7 +3933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3980,7 +3972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4022,7 +4014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4064,7 +4056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4103,7 +4095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4145,7 +4137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4187,7 +4179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4226,7 +4218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4268,7 +4260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4310,7 +4302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4349,7 +4341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4391,7 +4383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4433,7 +4425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4472,7 +4464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4511,7 +4503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4553,7 +4545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4656,16 +4648,16 @@
       <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4700,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4718,7 +4710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4736,7 +4728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4754,7 +4746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4772,7 +4764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4790,7 +4782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4808,7 +4800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4826,7 +4818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4844,7 +4836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4862,7 +4854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4880,7 +4872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4898,7 +4890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4916,7 +4908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4956,25 +4948,25 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="176.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="131.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="176.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="141.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4997,7 +4989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5021,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5039,13 +5031,13 @@
         <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5060,16 +5052,16 @@
         <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5081,19 +5073,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5105,19 +5097,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5129,19 +5121,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5153,19 +5145,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5177,19 +5169,19 @@
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5201,19 +5193,19 @@
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5225,19 +5217,19 @@
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5249,19 +5241,19 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5273,19 +5265,19 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5297,19 +5289,19 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5321,19 +5313,19 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5345,19 +5337,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5369,19 +5361,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5393,19 +5385,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5417,19 +5409,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5441,19 +5433,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5465,19 +5457,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5489,19 +5481,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5513,19 +5505,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5537,19 +5529,19 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5561,19 +5553,19 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5585,19 +5577,19 @@
         <v>More Information Needed</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5609,19 +5601,19 @@
         <v>More Information Needed</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5633,19 +5625,19 @@
         <v>More Information Needed</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5657,19 +5649,19 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5681,19 +5673,19 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5705,19 +5697,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5729,19 +5721,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5753,19 +5745,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5777,19 +5769,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5801,19 +5793,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5825,19 +5817,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5849,19 +5841,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5873,28 +5865,28 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
   </sheetData>
@@ -5924,41 +5916,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.88671875" style="4"/>
-    <col min="60" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.85546875" style="4"/>
+    <col min="60" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5967,11 +5959,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -5983,11 +5975,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -6030,7 +6022,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -6053,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>36</v>
@@ -6062,12 +6054,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -6085,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>39</v>
@@ -6094,49 +6086,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>35</v>
@@ -6148,12 +6140,12 @@
         <v>54</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>35</v>
@@ -6165,29 +6157,29 @@
         <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>35</v>
@@ -6196,12 +6188,12 @@
         <v>38</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>35</v>
@@ -6211,9 +6203,9 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
@@ -6223,9 +6215,9 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>76</v>
@@ -6235,9 +6227,9 @@
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>76</v>
@@ -6247,9 +6239,9 @@
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>81</v>
@@ -6259,7 +6251,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
@@ -6270,15 +6262,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
@@ -6286,7 +6278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
@@ -6294,15 +6286,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H21" s="4" t="s">
         <v>42</v>
       </c>
@@ -6310,7 +6302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H22" s="4" t="s">
         <v>42</v>
       </c>
@@ -6318,23 +6310,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="s">
         <v>42</v>
       </c>
@@ -6342,7 +6334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
@@ -6350,7 +6342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H27" s="4" t="s">
         <v>54</v>
       </c>
@@ -6358,7 +6350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6366,7 +6358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H29" s="4" t="s">
         <v>54</v>
       </c>
@@ -6374,7 +6366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
         <v>57</v>
       </c>
@@ -6382,7 +6374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="s">
         <v>57</v>
       </c>
@@ -6390,23 +6382,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" s="4" t="s">
         <v>57</v>
       </c>
@@ -6414,41 +6406,41 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H35" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I36" s="2" t="s">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H37" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H38" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>46</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aot\EPIC-FLOW\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2492B43-4F45-43D3-979F-E51D75366409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB46E0E-92A6-4DB8-A7D5-D2EBFF1A09A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -28,17 +28,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1381,55 +1370,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1450,18 +1439,18 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1513,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1539,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1565,226 +1554,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93"/>
     </row>
   </sheetData>
@@ -1824,25 +1813,25 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1922,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1961,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2000,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2039,7 +2028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2078,7 +2067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2117,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2156,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2195,7 +2184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2234,7 +2223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2273,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2315,7 +2304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2357,7 +2346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2399,7 +2388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2441,7 +2430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2480,7 +2469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2519,7 +2508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2561,7 +2550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2600,7 +2589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2642,7 +2631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2684,7 +2673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2726,7 +2715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2768,7 +2757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2807,7 +2796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2846,7 +2835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2885,7 +2874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2927,7 +2916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2969,7 +2958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3008,7 +2997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3050,7 +3039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3092,7 +3081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3131,7 +3120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3173,7 +3162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3215,7 +3204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3254,7 +3243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3296,7 +3285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3338,7 +3327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3377,7 +3366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3419,7 +3408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3461,7 +3450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3500,7 +3489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3542,7 +3531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3584,7 +3573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3623,7 +3612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3662,7 +3651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3701,7 +3690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3740,7 +3729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3782,7 +3771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3821,7 +3810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3860,7 +3849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3902,7 +3891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3944,7 +3933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3983,7 +3972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4025,7 +4014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4067,7 +4056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4106,7 +4095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4148,7 +4137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4190,7 +4179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4229,7 +4218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4271,7 +4260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4313,7 +4302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4352,7 +4341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4394,7 +4383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4436,7 +4425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4475,7 +4464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4514,7 +4503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4556,7 +4545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4656,19 +4645,19 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4685,7 +4674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4703,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4721,7 +4710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4739,7 +4728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4757,7 +4746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4775,7 +4764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4793,7 +4782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4811,7 +4800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4829,7 +4818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4847,7 +4836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4865,7 +4854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4883,7 +4872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4901,7 +4890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4919,7 +4908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4959,25 +4948,25 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="176.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="140" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="176.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="141.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5000,7 +4989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5024,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5048,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5072,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5096,7 +5085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5120,7 +5109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5144,7 +5133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5168,7 +5157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5192,7 +5181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5216,7 +5205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5240,7 +5229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5264,7 +5253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5288,7 +5277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5312,7 +5301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5336,7 +5325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5360,7 +5349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5384,7 +5373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5408,7 +5397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5432,7 +5421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5456,7 +5445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5480,7 +5469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5504,7 +5493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5528,7 +5517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5552,7 +5541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5576,7 +5565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5600,7 +5589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5624,7 +5613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5648,7 +5637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5672,7 +5661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5696,7 +5685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5720,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5744,7 +5733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5768,7 +5757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5792,7 +5781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5816,7 +5805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5840,7 +5829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5864,7 +5853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5888,16 +5877,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
   </sheetData>
@@ -5927,34 +5916,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.88671875" style="4"/>
-    <col min="60" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.85546875" style="4"/>
+    <col min="60" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -6033,7 +6022,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -6065,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>161</v>
       </c>
@@ -6097,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>164</v>
       </c>
@@ -6120,7 +6109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>168</v>
       </c>
@@ -6137,7 +6126,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>172</v>
       </c>
@@ -6154,7 +6143,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>174</v>
       </c>
@@ -6171,7 +6160,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>176</v>
       </c>
@@ -6188,7 +6177,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>179</v>
       </c>
@@ -6202,7 +6191,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>181</v>
       </c>
@@ -6214,7 +6203,7 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>182</v>
       </c>
@@ -6226,7 +6215,7 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>183</v>
       </c>
@@ -6238,7 +6227,7 @@
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>184</v>
       </c>
@@ -6250,7 +6239,7 @@
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>185</v>
       </c>
@@ -6262,7 +6251,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
@@ -6273,7 +6262,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="s">
         <v>42</v>
       </c>
@@ -6281,7 +6270,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
@@ -6289,7 +6278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
@@ -6297,7 +6286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
@@ -6305,7 +6294,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H21" s="4" t="s">
         <v>42</v>
       </c>
@@ -6313,7 +6302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H22" s="4" t="s">
         <v>42</v>
       </c>
@@ -6321,7 +6310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
@@ -6329,7 +6318,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H24" s="4" t="s">
         <v>42</v>
       </c>
@@ -6337,7 +6326,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="s">
         <v>42</v>
       </c>
@@ -6345,7 +6334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
@@ -6353,7 +6342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H27" s="4" t="s">
         <v>54</v>
       </c>
@@ -6361,7 +6350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6369,7 +6358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H29" s="4" t="s">
         <v>54</v>
       </c>
@@ -6377,7 +6366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
         <v>57</v>
       </c>
@@ -6385,7 +6374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="s">
         <v>57</v>
       </c>
@@ -6393,7 +6382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="s">
         <v>57</v>
       </c>
@@ -6401,7 +6390,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" s="4" t="s">
         <v>57</v>
       </c>
@@ -6409,7 +6398,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" s="4" t="s">
         <v>57</v>
       </c>
@@ -6417,7 +6406,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H35" s="4" t="s">
         <v>170</v>
       </c>
@@ -6425,7 +6414,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" s="4" t="s">
         <v>170</v>
       </c>
@@ -6433,7 +6422,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="s">
         <v>170</v>
       </c>
@@ -6441,7 +6430,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="s">
         <v>170</v>
       </c>
@@ -6449,7 +6438,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
         <v>170</v>
       </c>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aot\EPIC-FLOW\epictrack-api\src\api\templates\event_templates\project_notification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB46E0E-92A6-4DB8-A7D5-D2EBFF1A09A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935D0CA8-2159-46F6-A5C5-4F6BE19AA8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -24,10 +24,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$68</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1370,55 +1381,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1439,18 +1450,18 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1502,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1528,7 +1539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1554,226 +1565,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93"/>
     </row>
   </sheetData>
@@ -1816,22 +1827,22 @@
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1872,7 +1883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1911,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1950,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1989,7 +2000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2028,7 +2039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2067,7 +2078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2106,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2145,7 +2156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2184,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2223,7 +2234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2262,7 +2273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2304,7 +2315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2388,7 +2399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2430,7 +2441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2469,7 +2480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2550,7 +2561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2589,7 +2600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2631,7 +2642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2673,7 +2684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2715,7 +2726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2757,7 +2768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2796,7 +2807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2835,7 +2846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2874,7 +2885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2958,7 +2969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2997,7 +3008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3039,7 +3050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3081,7 +3092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3120,7 +3131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3162,7 +3173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3204,7 +3215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3243,7 +3254,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3285,7 +3296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3327,7 +3338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3366,7 +3377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3408,7 +3419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3450,7 +3461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3489,7 +3500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3531,7 +3542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3573,7 +3584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3612,7 +3623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3651,7 +3662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3729,7 +3740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3771,7 +3782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3810,7 +3821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3849,7 +3860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3891,7 +3902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3933,7 +3944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3972,7 +3983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4014,7 +4025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4056,7 +4067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4095,7 +4106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4137,7 +4148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4179,7 +4190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4218,7 +4229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4260,7 +4271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4341,7 +4352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4383,7 +4394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4425,7 +4436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4464,7 +4475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4503,7 +4514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4545,7 +4556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4648,16 +4659,16 @@
       <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4674,7 +4685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4692,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4710,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4728,7 +4739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4746,7 +4757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4764,7 +4775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4782,7 +4793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4800,7 +4811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4818,7 +4829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4836,7 +4847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4854,7 +4865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4872,7 +4883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4890,7 +4901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4908,7 +4919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4948,25 +4959,25 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="176.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="141.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="176.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="141.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4989,7 +5000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5013,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5037,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5061,7 +5072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5085,7 +5096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5109,7 +5120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5133,7 +5144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5157,7 +5168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5181,7 +5192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5205,7 +5216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5229,7 +5240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5253,7 +5264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5277,7 +5288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5301,7 +5312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5325,7 +5336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5349,7 +5360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5373,7 +5384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5397,7 +5408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5421,7 +5432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5445,7 +5456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5469,7 +5480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5493,7 +5504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5517,7 +5528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5541,7 +5552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5565,7 +5576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5589,7 +5600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5613,7 +5624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5637,7 +5648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5661,7 +5672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5685,7 +5696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5709,7 +5720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5733,7 +5744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5757,7 +5768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5781,7 +5792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5805,7 +5816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5829,7 +5840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5853,7 +5864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5877,16 +5888,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D42"/>
     </row>
   </sheetData>
@@ -5916,34 +5927,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.85546875" style="4"/>
-    <col min="60" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.88671875" style="4"/>
+    <col min="60" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -6022,7 +6033,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -6054,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>161</v>
       </c>
@@ -6086,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>164</v>
       </c>
@@ -6109,7 +6120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>168</v>
       </c>
@@ -6126,7 +6137,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>172</v>
       </c>
@@ -6143,7 +6154,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>174</v>
       </c>
@@ -6160,7 +6171,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>176</v>
       </c>
@@ -6177,7 +6188,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>179</v>
       </c>
@@ -6191,7 +6202,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>181</v>
       </c>
@@ -6203,7 +6214,7 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>182</v>
       </c>
@@ -6215,7 +6226,7 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>183</v>
       </c>
@@ -6227,7 +6238,7 @@
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>184</v>
       </c>
@@ -6239,7 +6250,7 @@
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>185</v>
       </c>
@@ -6251,7 +6262,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
@@ -6262,7 +6273,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="4" t="s">
         <v>42</v>
       </c>
@@ -6270,7 +6281,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
@@ -6278,7 +6289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
@@ -6286,7 +6297,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
@@ -6294,7 +6305,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="4" t="s">
         <v>42</v>
       </c>
@@ -6302,7 +6313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="4" t="s">
         <v>42</v>
       </c>
@@ -6310,7 +6321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
@@ -6318,7 +6329,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="4" t="s">
         <v>42</v>
       </c>
@@ -6326,7 +6337,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="4" t="s">
         <v>42</v>
       </c>
@@ -6334,7 +6345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
@@ -6342,7 +6353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="4" t="s">
         <v>54</v>
       </c>
@@ -6350,7 +6361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6358,7 +6369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="4" t="s">
         <v>54</v>
       </c>
@@ -6366,7 +6377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="4" t="s">
         <v>57</v>
       </c>
@@ -6374,7 +6385,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="4" t="s">
         <v>57</v>
       </c>
@@ -6382,7 +6393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="4" t="s">
         <v>57</v>
       </c>
@@ -6390,7 +6401,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33" s="4" t="s">
         <v>57</v>
       </c>
@@ -6398,7 +6409,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34" s="4" t="s">
         <v>57</v>
       </c>
@@ -6406,7 +6417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
         <v>170</v>
       </c>
@@ -6414,7 +6425,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
         <v>170</v>
       </c>
@@ -6422,7 +6433,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
         <v>170</v>
       </c>
@@ -6430,7 +6441,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
         <v>170</v>
       </c>
@@ -6438,7 +6449,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
         <v>170</v>
       </c>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aot\EPIC-FLOW\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935D0CA8-2159-46F6-A5C5-4F6BE19AA8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EDB628-0284-40A7-BB40-B17873451F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="202">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -814,10 +812,16 @@
     <t>{"start_date_locked": true}</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 21 }</t>
+    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 21 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Review", "legislated": false }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Decision","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Decision", "legislated": false }</t>
   </si>
 </sst>
 </file>
@@ -1381,55 +1385,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1450,18 +1454,18 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1513,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1565,226 +1569,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93"/>
     </row>
   </sheetData>
@@ -1824,25 +1828,25 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2078,7 +2082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2117,7 +2121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2195,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2519,7 +2523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2600,7 +2604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2642,7 +2646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2807,7 +2811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2927,7 +2931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2969,7 +2973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3050,7 +3054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3092,7 +3096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3623,7 +3627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3662,7 +3666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3902,7 +3906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3944,7 +3948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3983,7 +3987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4025,7 +4029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4148,7 +4152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4190,7 +4194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4229,7 +4233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4313,7 +4317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4352,7 +4356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4394,7 +4398,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4556,7 +4560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4656,19 +4660,19 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4757,7 +4761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4901,7 +4905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4919,7 +4923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4959,25 +4963,25 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="176.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="141.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="176.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="141.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5000,7 +5004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5288,7 +5292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5312,7 +5316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5360,7 +5364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5456,7 +5460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5480,7 +5484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5528,7 +5532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5618,13 +5622,13 @@
         <v>151</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5642,13 +5646,13 @@
         <v>152</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5672,7 +5676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5816,7 +5820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5840,7 +5844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5864,7 +5868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5888,20 +5892,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G34" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
+  <autoFilter ref="A1:G38" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5927,34 +5931,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.88671875" style="4"/>
-    <col min="60" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.85546875" style="4"/>
+    <col min="60" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -6033,7 +6037,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>161</v>
       </c>
@@ -6097,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>164</v>
       </c>
@@ -6120,7 +6124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>168</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>172</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>174</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>176</v>
       </c>
@@ -6188,7 +6192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>179</v>
       </c>
@@ -6202,7 +6206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>181</v>
       </c>
@@ -6214,7 +6218,7 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>182</v>
       </c>
@@ -6226,7 +6230,7 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>183</v>
       </c>
@@ -6238,7 +6242,7 @@
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>184</v>
       </c>
@@ -6250,7 +6254,7 @@
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>185</v>
       </c>
@@ -6262,7 +6266,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="s">
         <v>42</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
@@ -6289,7 +6293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
@@ -6297,7 +6301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H21" s="4" t="s">
         <v>42</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H22" s="4" t="s">
         <v>42</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
@@ -6329,7 +6333,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H24" s="4" t="s">
         <v>42</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="s">
         <v>42</v>
       </c>
@@ -6345,7 +6349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
@@ -6353,7 +6357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H27" s="4" t="s">
         <v>54</v>
       </c>
@@ -6361,7 +6365,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6369,7 +6373,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H29" s="4" t="s">
         <v>54</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
         <v>57</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="s">
         <v>57</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="s">
         <v>57</v>
       </c>
@@ -6401,7 +6405,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" s="4" t="s">
         <v>57</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" s="4" t="s">
         <v>57</v>
       </c>
@@ -6417,7 +6421,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H35" s="4" t="s">
         <v>170</v>
       </c>
@@ -6425,7 +6429,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" s="4" t="s">
         <v>170</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="s">
         <v>170</v>
       </c>
@@ -6441,7 +6445,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="s">
         <v>170</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
         <v>170</v>
       </c>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aot\EPIC-FLOW\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EDB628-0284-40A7-BB40-B17873451F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6729C-7842-4851-B78E-87FC8953B47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>EventPosition</t>
   </si>
   <si>
-    <t>MutipleDays</t>
-  </si>
-  <si>
     <t>StartAt</t>
   </si>
   <si>
@@ -822,6 +819,9 @@
   </si>
   <si>
     <t>{"phase_name":"Project Notification Decision","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Decision", "legislated": false }</t>
+  </si>
+  <si>
+    <t>MultipleDays</t>
   </si>
 </sst>
 </file>
@@ -1824,11 +1824,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,16 +1872,16 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -1895,20 +1895,20 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>IF((C2=""),"",VLOOKUP(C2,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="7" t="b">
         <v>0</v>
@@ -1934,20 +1934,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IF((C3=""),"",VLOOKUP(C3,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>0</v>
@@ -1973,20 +1973,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IF((C4=""),"",VLOOKUP(C4,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7" t="b">
         <v>0</v>
@@ -2012,20 +2012,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IF((C5=""),"",VLOOKUP(C5,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>0</v>
@@ -2051,20 +2051,20 @@
         <v>1</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>IF((C6=""),"",VLOOKUP(C6,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="7" t="b">
         <v>0</v>
@@ -2090,20 +2090,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>IF((C7=""),"",VLOOKUP(C7,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7" t="b">
         <v>0</v>
@@ -2129,20 +2129,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>IF((C8=""),"",VLOOKUP(C8,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="I8" s="7" t="b">
         <v>0</v>
@@ -2168,20 +2168,20 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF((C9=""),"",VLOOKUP(C9,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I9" s="7" t="b">
         <v>0</v>
@@ -2207,20 +2207,20 @@
         <v>2</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>IF((C10=""),"",VLOOKUP(C10,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7" t="b">
         <v>0</v>
@@ -2246,20 +2246,20 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>IF((C11=""),"",VLOOKUP(C11,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7" t="b">
         <v>1</v>
@@ -2288,20 +2288,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>IF((C12=""),"",VLOOKUP(C12,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="7" t="b">
         <v>0</v>
@@ -2330,20 +2330,20 @@
         <v>2</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>IF((C13=""),"",VLOOKUP(C13,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7" t="b">
         <v>0</v>
@@ -2372,20 +2372,20 @@
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="6" t="str">
         <f>IF((C14=""),"",VLOOKUP(C14,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7" t="b">
         <v>0</v>
@@ -2414,26 +2414,26 @@
         <v>2</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>IF((C15=""),"",VLOOKUP(C15,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2453,20 +2453,20 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>IF((C16=""),"",VLOOKUP(C16,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I16" s="7" t="b">
         <v>0</v>
@@ -2492,20 +2492,20 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>IF((C17=""),"",VLOOKUP(C17,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7" t="b">
         <v>0</v>
@@ -2534,20 +2534,20 @@
         <v>2</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="6" t="str">
         <f>IF((C18=""),"",VLOOKUP(C18,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="7" t="b">
         <v>0</v>
@@ -2573,20 +2573,20 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="6" t="str">
         <f>IF((C19=""),"",VLOOKUP(C19,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="7" t="b">
         <v>1</v>
@@ -2615,20 +2615,20 @@
         <v>2</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="str">
         <f>IF((C20=""),"",VLOOKUP(C20,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="7" t="b">
         <v>0</v>
@@ -2657,20 +2657,20 @@
         <v>2</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IF((C21=""),"",VLOOKUP(C21,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="7" t="b">
         <v>0</v>
@@ -2699,20 +2699,20 @@
         <v>2</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6" t="str">
         <f>IF((C22=""),"",VLOOKUP(C22,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="7" t="b">
         <v>0</v>
@@ -2741,26 +2741,26 @@
         <v>2</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="6" t="str">
         <f>IF((C23=""),"",VLOOKUP(C23,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -2780,20 +2780,20 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="6" t="str">
         <f>IF((C24=""),"",VLOOKUP(C24,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="7" t="b">
         <v>0</v>
@@ -2819,20 +2819,20 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="6" t="str">
         <f>IF((C25=""),"",VLOOKUP(C25,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="7" t="b">
         <v>0</v>
@@ -2858,20 +2858,20 @@
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="6" t="str">
         <f>IF((C26=""),"",VLOOKUP(C26,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="7" t="b">
         <v>1</v>
@@ -2900,20 +2900,20 @@
         <v>2</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="6" t="str">
         <f>IF((C27=""),"",VLOOKUP(C27,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" s="7" t="b">
         <v>0</v>
@@ -2942,20 +2942,20 @@
         <v>2</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="6" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="7" t="b">
         <v>0</v>
@@ -2981,20 +2981,20 @@
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="6" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="7" t="b">
         <v>1</v>
@@ -3023,20 +3023,20 @@
         <v>2</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="6" t="str">
         <f>IF((C30=""),"",VLOOKUP(C30,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="7" t="b">
         <v>0</v>
@@ -3065,20 +3065,20 @@
         <v>2</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="6" t="str">
         <f>IF((C31=""),"",VLOOKUP(C31,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="7" t="b">
         <v>0</v>
@@ -3104,20 +3104,20 @@
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="6" t="str">
         <f>IF((C32=""),"",VLOOKUP(C32,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="H32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="7" t="b">
         <v>0</v>
@@ -3146,20 +3146,20 @@
         <v>2</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="6" t="str">
         <f>IF((C33=""),"",VLOOKUP(C33,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="7" t="b">
         <v>0</v>
@@ -3188,20 +3188,20 @@
         <v>2</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="6" t="str">
         <f>IF((C34=""),"",VLOOKUP(C34,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="7" t="b">
         <v>0</v>
@@ -3227,20 +3227,20 @@
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="6" t="str">
         <f>IF((C35=""),"",VLOOKUP(C35,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="7" t="b">
         <v>0</v>
@@ -3269,20 +3269,20 @@
         <v>2</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="6" t="str">
         <f>IF((C36=""),"",VLOOKUP(C36,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H36" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="7" t="b">
         <v>0</v>
@@ -3311,20 +3311,20 @@
         <v>2</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="6" t="str">
         <f>IF((C37=""),"",VLOOKUP(C37,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="7" t="b">
         <v>0</v>
@@ -3350,20 +3350,20 @@
         <v>2</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="6" t="str">
         <f>IF((C38=""),"",VLOOKUP(C38,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I38" s="7" t="b">
         <v>0</v>
@@ -3392,20 +3392,20 @@
         <v>2</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="6" t="str">
         <f>IF((C39=""),"",VLOOKUP(C39,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39" s="7" t="b">
         <v>0</v>
@@ -3434,20 +3434,20 @@
         <v>2</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="6" t="str">
         <f>IF((C40=""),"",VLOOKUP(C40,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="7" t="b">
         <v>0</v>
@@ -3473,20 +3473,20 @@
         <v>2</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="6" t="str">
         <f>IF((C41=""),"",VLOOKUP(C41,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41" s="7" t="b">
         <v>0</v>
@@ -3515,20 +3515,20 @@
         <v>2</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="6" t="str">
         <f>IF((C42=""),"",VLOOKUP(C42,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H42" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="7" t="b">
         <v>0</v>
@@ -3557,20 +3557,20 @@
         <v>2</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="6" t="str">
         <f>IF((C43=""),"",VLOOKUP(C43,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" s="7" t="b">
         <v>0</v>
@@ -3596,20 +3596,20 @@
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="6" t="str">
         <f>IF((C44=""),"",VLOOKUP(C44,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="7" t="b">
         <v>0</v>
@@ -3635,20 +3635,20 @@
         <v>2</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="6" t="str">
         <f>IF((C45=""),"",VLOOKUP(C45,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I45" s="7" t="b">
         <v>0</v>
@@ -3674,20 +3674,20 @@
         <v>3</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="6" t="str">
         <f>IF((C46=""),"",VLOOKUP(C46,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I46" s="7" t="b">
         <v>0</v>
@@ -3713,20 +3713,20 @@
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="6" t="str">
         <f>IF((C47=""),"",VLOOKUP(C47,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I47" s="7" t="b">
         <v>0</v>
@@ -3755,20 +3755,20 @@
         <v>3</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="6" t="str">
         <f>IF((C48=""),"",VLOOKUP(C48,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48" s="7" t="b">
         <v>0</v>
@@ -3794,20 +3794,20 @@
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="6" t="str">
         <f>IF((C49=""),"",VLOOKUP(C49,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I49" s="7" t="b">
         <v>0</v>
@@ -3833,20 +3833,20 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E50" s="6" t="str">
         <f>IF((C50=""),"",VLOOKUP(C50,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H50" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I50" s="7" t="b">
         <v>1</v>
@@ -3875,20 +3875,20 @@
         <v>3</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="6" t="str">
         <f>IF((C51=""),"",VLOOKUP(C51,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H51" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" s="7" t="b">
         <v>0</v>
@@ -3917,20 +3917,20 @@
         <v>3</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" s="6" t="str">
         <f>IF((C52=""),"",VLOOKUP(C52,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I52" s="7" t="b">
         <v>0</v>
@@ -3956,20 +3956,20 @@
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="6" t="str">
         <f>IF((C53=""),"",VLOOKUP(C53,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I53" s="7" t="b">
         <v>0</v>
@@ -3998,20 +3998,20 @@
         <v>3</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="6" t="str">
         <f>IF((C54=""),"",VLOOKUP(C54,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" s="7" t="b">
         <v>0</v>
@@ -4040,20 +4040,20 @@
         <v>3</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="6" t="str">
         <f>IF((C55=""),"",VLOOKUP(C55,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I55" s="7" t="b">
         <v>0</v>
@@ -4079,20 +4079,20 @@
         <v>3</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="6" t="str">
         <f>IF((C56=""),"",VLOOKUP(C56,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I56" s="7" t="b">
         <v>0</v>
@@ -4121,20 +4121,20 @@
         <v>3</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="6" t="str">
         <f>IF((C57=""),"",VLOOKUP(C57,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H57" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I57" s="7" t="b">
         <v>0</v>
@@ -4163,20 +4163,20 @@
         <v>3</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E58" s="6" t="str">
         <f>IF((C58=""),"",VLOOKUP(C58,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I58" s="7" t="b">
         <v>0</v>
@@ -4202,20 +4202,20 @@
         <v>3</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E59" s="6" t="str">
         <f>IF((C59=""),"",VLOOKUP(C59,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I59" s="7" t="b">
         <v>0</v>
@@ -4244,20 +4244,20 @@
         <v>3</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" s="6" t="str">
         <f>IF((C60=""),"",VLOOKUP(C60,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H60" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I60" s="7" t="b">
         <v>0</v>
@@ -4286,20 +4286,20 @@
         <v>3</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E61" s="6" t="str">
         <f>IF((C61=""),"",VLOOKUP(C61,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I61" s="7" t="b">
         <v>0</v>
@@ -4325,20 +4325,20 @@
         <v>3</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62" s="6" t="str">
         <f>IF((C62=""),"",VLOOKUP(C62,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I62" s="7" t="b">
         <v>0</v>
@@ -4367,20 +4367,20 @@
         <v>3</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="6" t="str">
         <f>IF((C63=""),"",VLOOKUP(C63,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H63" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I63" s="7" t="b">
         <v>0</v>
@@ -4409,20 +4409,20 @@
         <v>3</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="6" t="str">
         <f>IF((C64=""),"",VLOOKUP(C64,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I64" s="7" t="b">
         <v>0</v>
@@ -4448,20 +4448,20 @@
         <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65" s="6" t="str">
         <f>IF((C65=""),"",VLOOKUP(C65,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I65" s="7" t="b">
         <v>0</v>
@@ -4487,20 +4487,20 @@
         <v>3</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E66" s="6" t="str">
         <f>IF((C66=""),"",VLOOKUP(C66,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I66" s="7" t="b">
         <v>0</v>
@@ -4529,20 +4529,20 @@
         <v>3</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E67" s="6" t="str">
         <f>IF((C67=""),"",VLOOKUP(C67,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H67" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I67" s="7" t="b">
         <v>0</v>
@@ -4571,20 +4571,20 @@
         <v>3</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E68" s="6" t="str">
         <f>IF((C68=""),"",VLOOKUP(C68,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I68" s="7" t="b">
         <v>0</v>
@@ -4677,13 +4677,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -4701,7 +4701,7 @@
         <v>"Draft" Project Notification Initial Review</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>"Draft" Project Notification Initial Review</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -4737,7 +4737,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -4755,7 +4755,7 @@
         <v>Project Notification Submission</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -4773,7 +4773,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -4791,7 +4791,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -4809,7 +4809,7 @@
         <v>s.38 Extension of Time Limit</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
@@ -4827,7 +4827,7 @@
         <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
@@ -4845,7 +4845,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3">
         <v>9</v>
@@ -4863,7 +4863,7 @@
         <v>Decision: Project Notification</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -4881,7 +4881,7 @@
         <v>Decision: Project Notification</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3">
         <v>11</v>
@@ -4899,7 +4899,7 @@
         <v>Decision: Project Notification</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3">
         <v>12</v>
@@ -4917,7 +4917,7 @@
         <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3">
         <v>13</v>
@@ -4935,7 +4935,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="3">
         <v>14</v>
@@ -4962,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
@@ -4986,19 +4986,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -5016,13 +5016,13 @@
         <v>Initial Review of "Draft" Project Notification is POSITIVE</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -5040,13 +5040,13 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -5064,13 +5064,13 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -5088,13 +5088,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -5112,13 +5112,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -5136,13 +5136,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -5160,13 +5160,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -5184,13 +5184,13 @@
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -5208,13 +5208,13 @@
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -5232,13 +5232,13 @@
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -5256,13 +5256,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -5280,13 +5280,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -5304,13 +5304,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
@@ -5328,13 +5328,13 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
@@ -5352,13 +5352,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
@@ -5376,13 +5376,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
@@ -5400,13 +5400,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
@@ -5424,13 +5424,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
@@ -5448,13 +5448,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
@@ -5472,13 +5472,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
@@ -5496,13 +5496,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
@@ -5520,13 +5520,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="3">
         <v>22</v>
@@ -5544,13 +5544,13 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="3">
         <v>23</v>
@@ -5568,13 +5568,13 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
@@ -5592,13 +5592,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
@@ -5616,13 +5616,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G27" s="3">
         <v>26</v>
@@ -5640,13 +5640,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
@@ -5664,13 +5664,13 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="3">
         <v>28</v>
@@ -5688,13 +5688,13 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="3">
         <v>29</v>
@@ -5712,13 +5712,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G31" s="3">
         <v>30</v>
@@ -5736,13 +5736,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="3">
         <v>31</v>
@@ -5760,13 +5760,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G33" s="3">
         <v>32</v>
@@ -5784,13 +5784,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="3">
         <v>33</v>
@@ -5808,13 +5808,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G35" s="3">
         <v>34</v>
@@ -5832,13 +5832,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" s="3">
         <v>35</v>
@@ -5856,13 +5856,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G37" s="3">
         <v>36</v>
@@ -5880,13 +5880,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G38" s="3">
         <v>37</v>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5974,27 +5974,27 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -6048,22 +6048,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>1</v>
@@ -6071,31 +6071,31 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="Q4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" s="2" t="b">
         <v>0</v>
@@ -6103,362 +6103,362 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aot\EPIC-FLOW\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935D0CA8-2159-46F6-A5C5-4F6BE19AA8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6729C-7842-4851-B78E-87FC8953B47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="202">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -310,9 +308,6 @@
     <t>EventPosition</t>
   </si>
   <si>
-    <t>MutipleDays</t>
-  </si>
-  <si>
     <t>StartAt</t>
   </si>
   <si>
@@ -814,10 +809,19 @@
     <t>{"start_date_locked": true}</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 21 }</t>
+    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 21 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Review", "legislated": false }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Project Notification Decision","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Decision", "legislated": false }</t>
+  </si>
+  <si>
+    <t>MultipleDays</t>
   </si>
 </sst>
 </file>
@@ -1381,55 +1385,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1450,18 +1454,18 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1513,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1565,226 +1569,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93"/>
     </row>
   </sheetData>
@@ -1820,29 +1824,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1868,22 +1872,22 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1891,20 +1895,20 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>IF((C2=""),"",VLOOKUP(C2,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="7" t="b">
         <v>0</v>
@@ -1922,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1930,20 +1934,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IF((C3=""),"",VLOOKUP(C3,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>0</v>
@@ -1961,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1969,20 +1973,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IF((C4=""),"",VLOOKUP(C4,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7" t="b">
         <v>0</v>
@@ -2000,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2008,20 +2012,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IF((C5=""),"",VLOOKUP(C5,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>0</v>
@@ -2039,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2047,20 +2051,20 @@
         <v>1</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>IF((C6=""),"",VLOOKUP(C6,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="7" t="b">
         <v>0</v>
@@ -2078,7 +2082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2086,20 +2090,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>IF((C7=""),"",VLOOKUP(C7,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7" t="b">
         <v>0</v>
@@ -2117,7 +2121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2125,20 +2129,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>IF((C8=""),"",VLOOKUP(C8,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Intake</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="I8" s="7" t="b">
         <v>0</v>
@@ -2156,7 +2160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2164,20 +2168,20 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF((C9=""),"",VLOOKUP(C9,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I9" s="7" t="b">
         <v>0</v>
@@ -2195,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2203,20 +2207,20 @@
         <v>2</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>IF((C10=""),"",VLOOKUP(C10,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7" t="b">
         <v>0</v>
@@ -2234,7 +2238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2242,20 +2246,20 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>IF((C11=""),"",VLOOKUP(C11,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7" t="b">
         <v>1</v>
@@ -2273,7 +2277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2284,20 +2288,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>IF((C12=""),"",VLOOKUP(C12,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="7" t="b">
         <v>0</v>
@@ -2315,7 +2319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2326,20 +2330,20 @@
         <v>2</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>IF((C13=""),"",VLOOKUP(C13,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7" t="b">
         <v>0</v>
@@ -2357,7 +2361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2368,20 +2372,20 @@
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="6" t="str">
         <f>IF((C14=""),"",VLOOKUP(C14,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7" t="b">
         <v>0</v>
@@ -2399,7 +2403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2410,26 +2414,26 @@
         <v>2</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>IF((C15=""),"",VLOOKUP(C15,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2441,7 +2445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2449,20 +2453,20 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>IF((C16=""),"",VLOOKUP(C16,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I16" s="7" t="b">
         <v>0</v>
@@ -2480,7 +2484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2488,20 +2492,20 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>IF((C17=""),"",VLOOKUP(C17,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7" t="b">
         <v>0</v>
@@ -2519,7 +2523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2530,20 +2534,20 @@
         <v>2</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="6" t="str">
         <f>IF((C18=""),"",VLOOKUP(C18,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="7" t="b">
         <v>0</v>
@@ -2561,7 +2565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2569,20 +2573,20 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="6" t="str">
         <f>IF((C19=""),"",VLOOKUP(C19,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="7" t="b">
         <v>1</v>
@@ -2600,7 +2604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2611,20 +2615,20 @@
         <v>2</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="str">
         <f>IF((C20=""),"",VLOOKUP(C20,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="7" t="b">
         <v>0</v>
@@ -2642,7 +2646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2653,20 +2657,20 @@
         <v>2</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IF((C21=""),"",VLOOKUP(C21,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="7" t="b">
         <v>0</v>
@@ -2684,7 +2688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2695,20 +2699,20 @@
         <v>2</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6" t="str">
         <f>IF((C22=""),"",VLOOKUP(C22,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="7" t="b">
         <v>0</v>
@@ -2726,7 +2730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2737,26 +2741,26 @@
         <v>2</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="6" t="str">
         <f>IF((C23=""),"",VLOOKUP(C23,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -2768,7 +2772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2776,20 +2780,20 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="6" t="str">
         <f>IF((C24=""),"",VLOOKUP(C24,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="7" t="b">
         <v>0</v>
@@ -2807,7 +2811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2815,20 +2819,20 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="6" t="str">
         <f>IF((C25=""),"",VLOOKUP(C25,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="7" t="b">
         <v>0</v>
@@ -2846,7 +2850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2854,20 +2858,20 @@
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="6" t="str">
         <f>IF((C26=""),"",VLOOKUP(C26,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="7" t="b">
         <v>1</v>
@@ -2885,7 +2889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2896,20 +2900,20 @@
         <v>2</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="6" t="str">
         <f>IF((C27=""),"",VLOOKUP(C27,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" s="7" t="b">
         <v>0</v>
@@ -2927,7 +2931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2938,20 +2942,20 @@
         <v>2</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="6" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="7" t="b">
         <v>0</v>
@@ -2969,7 +2973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2977,20 +2981,20 @@
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="6" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="7" t="b">
         <v>1</v>
@@ -3008,7 +3012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3019,20 +3023,20 @@
         <v>2</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="6" t="str">
         <f>IF((C30=""),"",VLOOKUP(C30,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="7" t="b">
         <v>0</v>
@@ -3050,7 +3054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3061,20 +3065,20 @@
         <v>2</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="6" t="str">
         <f>IF((C31=""),"",VLOOKUP(C31,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="7" t="b">
         <v>0</v>
@@ -3092,7 +3096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3100,20 +3104,20 @@
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="6" t="str">
         <f>IF((C32=""),"",VLOOKUP(C32,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="H32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="7" t="b">
         <v>0</v>
@@ -3131,7 +3135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3142,20 +3146,20 @@
         <v>2</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="6" t="str">
         <f>IF((C33=""),"",VLOOKUP(C33,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="7" t="b">
         <v>0</v>
@@ -3173,7 +3177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3184,20 +3188,20 @@
         <v>2</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="6" t="str">
         <f>IF((C34=""),"",VLOOKUP(C34,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="7" t="b">
         <v>0</v>
@@ -3215,7 +3219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3223,20 +3227,20 @@
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="6" t="str">
         <f>IF((C35=""),"",VLOOKUP(C35,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="7" t="b">
         <v>0</v>
@@ -3254,7 +3258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3265,20 +3269,20 @@
         <v>2</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="6" t="str">
         <f>IF((C36=""),"",VLOOKUP(C36,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H36" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="7" t="b">
         <v>0</v>
@@ -3296,7 +3300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3307,20 +3311,20 @@
         <v>2</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="6" t="str">
         <f>IF((C37=""),"",VLOOKUP(C37,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="7" t="b">
         <v>0</v>
@@ -3338,7 +3342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3346,20 +3350,20 @@
         <v>2</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="6" t="str">
         <f>IF((C38=""),"",VLOOKUP(C38,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I38" s="7" t="b">
         <v>0</v>
@@ -3377,7 +3381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3388,20 +3392,20 @@
         <v>2</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="6" t="str">
         <f>IF((C39=""),"",VLOOKUP(C39,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39" s="7" t="b">
         <v>0</v>
@@ -3419,7 +3423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3430,20 +3434,20 @@
         <v>2</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="6" t="str">
         <f>IF((C40=""),"",VLOOKUP(C40,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="7" t="b">
         <v>0</v>
@@ -3461,7 +3465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3469,20 +3473,20 @@
         <v>2</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="6" t="str">
         <f>IF((C41=""),"",VLOOKUP(C41,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41" s="7" t="b">
         <v>0</v>
@@ -3500,7 +3504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3511,20 +3515,20 @@
         <v>2</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="6" t="str">
         <f>IF((C42=""),"",VLOOKUP(C42,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H42" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="7" t="b">
         <v>0</v>
@@ -3542,7 +3546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3553,20 +3557,20 @@
         <v>2</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="6" t="str">
         <f>IF((C43=""),"",VLOOKUP(C43,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" s="7" t="b">
         <v>0</v>
@@ -3584,7 +3588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3592,20 +3596,20 @@
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="6" t="str">
         <f>IF((C44=""),"",VLOOKUP(C44,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="7" t="b">
         <v>0</v>
@@ -3623,7 +3627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3631,20 +3635,20 @@
         <v>2</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="6" t="str">
         <f>IF((C45=""),"",VLOOKUP(C45,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I45" s="7" t="b">
         <v>0</v>
@@ -3662,7 +3666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3670,20 +3674,20 @@
         <v>3</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="6" t="str">
         <f>IF((C46=""),"",VLOOKUP(C46,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I46" s="7" t="b">
         <v>0</v>
@@ -3701,7 +3705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3709,20 +3713,20 @@
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="6" t="str">
         <f>IF((C47=""),"",VLOOKUP(C47,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I47" s="7" t="b">
         <v>0</v>
@@ -3740,7 +3744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3751,20 +3755,20 @@
         <v>3</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="6" t="str">
         <f>IF((C48=""),"",VLOOKUP(C48,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48" s="7" t="b">
         <v>0</v>
@@ -3782,7 +3786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3790,20 +3794,20 @@
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="6" t="str">
         <f>IF((C49=""),"",VLOOKUP(C49,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I49" s="7" t="b">
         <v>0</v>
@@ -3821,7 +3825,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3829,20 +3833,20 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E50" s="6" t="str">
         <f>IF((C50=""),"",VLOOKUP(C50,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H50" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I50" s="7" t="b">
         <v>1</v>
@@ -3860,7 +3864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3871,20 +3875,20 @@
         <v>3</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="6" t="str">
         <f>IF((C51=""),"",VLOOKUP(C51,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H51" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" s="7" t="b">
         <v>0</v>
@@ -3902,7 +3906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3913,20 +3917,20 @@
         <v>3</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" s="6" t="str">
         <f>IF((C52=""),"",VLOOKUP(C52,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I52" s="7" t="b">
         <v>0</v>
@@ -3944,7 +3948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3952,20 +3956,20 @@
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="6" t="str">
         <f>IF((C53=""),"",VLOOKUP(C53,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I53" s="7" t="b">
         <v>0</v>
@@ -3983,7 +3987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3994,20 +3998,20 @@
         <v>3</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="6" t="str">
         <f>IF((C54=""),"",VLOOKUP(C54,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" s="7" t="b">
         <v>0</v>
@@ -4025,7 +4029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4036,20 +4040,20 @@
         <v>3</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="6" t="str">
         <f>IF((C55=""),"",VLOOKUP(C55,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I55" s="7" t="b">
         <v>0</v>
@@ -4067,7 +4071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4075,20 +4079,20 @@
         <v>3</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="6" t="str">
         <f>IF((C56=""),"",VLOOKUP(C56,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I56" s="7" t="b">
         <v>0</v>
@@ -4106,7 +4110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4117,20 +4121,20 @@
         <v>3</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="6" t="str">
         <f>IF((C57=""),"",VLOOKUP(C57,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H57" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I57" s="7" t="b">
         <v>0</v>
@@ -4148,7 +4152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4159,20 +4163,20 @@
         <v>3</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E58" s="6" t="str">
         <f>IF((C58=""),"",VLOOKUP(C58,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I58" s="7" t="b">
         <v>0</v>
@@ -4190,7 +4194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4198,20 +4202,20 @@
         <v>3</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E59" s="6" t="str">
         <f>IF((C59=""),"",VLOOKUP(C59,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I59" s="7" t="b">
         <v>0</v>
@@ -4229,7 +4233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4240,20 +4244,20 @@
         <v>3</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" s="6" t="str">
         <f>IF((C60=""),"",VLOOKUP(C60,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H60" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I60" s="7" t="b">
         <v>0</v>
@@ -4271,7 +4275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4282,20 +4286,20 @@
         <v>3</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E61" s="6" t="str">
         <f>IF((C61=""),"",VLOOKUP(C61,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I61" s="7" t="b">
         <v>0</v>
@@ -4313,7 +4317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4321,20 +4325,20 @@
         <v>3</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62" s="6" t="str">
         <f>IF((C62=""),"",VLOOKUP(C62,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I62" s="7" t="b">
         <v>0</v>
@@ -4352,7 +4356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4363,20 +4367,20 @@
         <v>3</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="6" t="str">
         <f>IF((C63=""),"",VLOOKUP(C63,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H63" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I63" s="7" t="b">
         <v>0</v>
@@ -4394,7 +4398,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4405,20 +4409,20 @@
         <v>3</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="6" t="str">
         <f>IF((C64=""),"",VLOOKUP(C64,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I64" s="7" t="b">
         <v>0</v>
@@ -4436,7 +4440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4444,20 +4448,20 @@
         <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65" s="6" t="str">
         <f>IF((C65=""),"",VLOOKUP(C65,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I65" s="7" t="b">
         <v>0</v>
@@ -4475,7 +4479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4483,20 +4487,20 @@
         <v>3</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E66" s="6" t="str">
         <f>IF((C66=""),"",VLOOKUP(C66,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I66" s="7" t="b">
         <v>0</v>
@@ -4514,7 +4518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4525,20 +4529,20 @@
         <v>3</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E67" s="6" t="str">
         <f>IF((C67=""),"",VLOOKUP(C67,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H67" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I67" s="7" t="b">
         <v>0</v>
@@ -4556,7 +4560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4567,20 +4571,20 @@
         <v>3</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E68" s="6" t="str">
         <f>IF((C68=""),"",VLOOKUP(C68,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I68" s="7" t="b">
         <v>0</v>
@@ -4656,36 +4660,36 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4697,13 +4701,13 @@
         <v>"Draft" Project Notification Initial Review</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4715,13 +4719,13 @@
         <v>"Draft" Project Notification Initial Review</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4733,13 +4737,13 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4751,13 +4755,13 @@
         <v>Project Notification Submission</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4769,13 +4773,13 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4787,13 +4791,13 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4805,13 +4809,13 @@
         <v>s.38 Extension of Time Limit</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4823,13 +4827,13 @@
         <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4841,13 +4845,13 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4859,13 +4863,13 @@
         <v>Decision: Project Notification</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4877,13 +4881,13 @@
         <v>Decision: Project Notification</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4895,13 +4899,13 @@
         <v>Decision: Project Notification</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4913,13 +4917,13 @@
         <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="3">
         <v>14</v>
@@ -4958,49 +4962,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="176.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="141.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="176.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="141.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5012,19 +5016,19 @@
         <v>Initial Review of "Draft" Project Notification is POSITIVE</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5036,19 +5040,19 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5060,19 +5064,19 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5084,19 +5088,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5108,19 +5112,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5132,19 +5136,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5156,19 +5160,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5180,19 +5184,19 @@
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5204,19 +5208,19 @@
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5228,19 +5232,19 @@
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5252,19 +5256,19 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5276,19 +5280,19 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5300,19 +5304,19 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5324,19 +5328,19 @@
         <v>Days are added to the PHASE END EVENT</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5348,19 +5352,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5372,19 +5376,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5396,19 +5400,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5420,19 +5424,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5444,19 +5448,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5468,19 +5472,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5492,19 +5496,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5516,19 +5520,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5540,19 +5544,19 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5564,19 +5568,19 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5588,19 +5592,19 @@
         <v>More Information Needed</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5612,19 +5616,19 @@
         <v>More Information Needed</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="G27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5636,19 +5640,19 @@
         <v>More Information Needed</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5660,19 +5664,19 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5684,19 +5688,19 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5708,19 +5712,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5732,19 +5736,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5756,19 +5760,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5780,19 +5784,19 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5804,19 +5808,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5828,19 +5832,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5852,19 +5856,19 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5876,32 +5880,32 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G34" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
+  <autoFilter ref="A1:G38" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5927,41 +5931,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.88671875" style="4"/>
-    <col min="60" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.85546875" style="4"/>
+    <col min="60" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5970,27 +5974,27 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -6033,7 +6037,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -6044,417 +6048,417 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="O6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="H13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="H15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="2" t="s">
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="2" t="s">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="2" t="s">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="2" t="s">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="2" t="s">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="2" t="s">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H35" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="2" t="s">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I36" s="2" t="s">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H37" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I37" s="2" t="s">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H38" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aot\EPIC-FLOW\epictrack-api\src\api\templates\event_templates\project_notification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6729C-7842-4851-B78E-87FC8953B47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2E1EA-F9B0-46DA-86D9-7E19AB94FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="201">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>CEAO is delegated to make the final Project Notification Decision</t>
-  </si>
-  <si>
-    <t>Days are added to the PHASE END EVENT</t>
   </si>
   <si>
     <t>Project Notification is Terminated under s.39(d) of Act</t>
@@ -1385,55 +1382,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1454,18 +1451,18 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1543,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1569,226 +1566,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93"/>
     </row>
   </sheetData>
@@ -1824,29 +1821,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1872,7 +1869,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
@@ -1887,7 +1884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1926,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1965,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2004,7 +2001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2082,7 +2079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2121,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2160,7 +2157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2199,7 +2196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2277,7 +2274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2319,7 +2316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2361,7 +2358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2403,7 +2400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2445,7 +2442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2484,7 +2481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2523,7 +2520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2565,7 +2562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2604,7 +2601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2646,7 +2643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2688,7 +2685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2772,7 +2769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2811,7 +2808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2850,7 +2847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2931,7 +2928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2973,7 +2970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3012,7 +3009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3054,7 +3051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3135,7 +3132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3177,7 +3174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3300,7 +3297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3342,7 +3339,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3381,7 +3378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3423,7 +3420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3465,7 +3462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3504,7 +3501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3546,7 +3543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3588,7 +3585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3627,7 +3624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3666,7 +3663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3705,7 +3702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3744,7 +3741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3786,7 +3783,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3825,7 +3822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3864,7 +3861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3906,7 +3903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3948,7 +3945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4029,7 +4026,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4071,7 +4068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4152,7 +4149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4233,7 +4230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4275,7 +4272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4317,7 +4314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4356,7 +4353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4398,7 +4395,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4440,7 +4437,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4479,7 +4476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4518,7 +4515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4560,7 +4557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4654,25 +4651,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E0C025-141A-44A8-A6E5-45461DB42BA4}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD7"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4689,7 +4686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4707,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4725,7 +4722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4743,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4761,7 +4758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4797,61 +4794,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>IF((B8=""),"",VLOOKUP(B8,Events!$A$2:$D$68,4,FALSE))</f>
-        <v>s.38 Extension of Time Limit</v>
+        <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>IF((B9=""),"",VLOOKUP(B9,Events!$A$2:$D$68,4,FALSE))</f>
-        <v>Project Notification Terminated s.39(d)</v>
+        <v>Project Withdrawn</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E9" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>IF((B10=""),"",VLOOKUP(B10,Events!$A$2:$D$68,4,FALSE))</f>
-        <v>Project Withdrawn</v>
+        <v>Decision: Project Notification</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4866,10 +4863,10 @@
         <v>113</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4884,60 +4881,42 @@
         <v>114</v>
       </c>
       <c r="E12" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="8">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>IF((B13=""),"",VLOOKUP(B13,Events!$A$2:$D$68,4,FALSE))</f>
-        <v>Decision: Project Notification</v>
+        <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E13" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>IF((B14=""),"",VLOOKUP(B14,Events!$A$2:$D$68,4,FALSE))</f>
-        <v>Project Notification Terminated s.39(d)</v>
+        <v>Project Withdrawn</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E14" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8">
-        <v>61</v>
-      </c>
-      <c r="C15" s="6" t="str">
-        <f>IF((B15=""),"",VLOOKUP(B15,Events!$A$2:$D$68,4,FALSE))</f>
-        <v>Project Withdrawn</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="3">
         <v>14</v>
       </c>
     </row>
@@ -4950,7 +4929,7 @@
           <x14:formula1>
             <xm:f>Events!$A$2:$A$68</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B15</xm:sqref>
+          <xm:sqref>B2:B14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4960,51 +4939,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="176.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="141.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="176.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="141.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5012,23 +4991,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>IF((B2=""),"",VLOOKUP(B2,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B2=""),"",VLOOKUP(B2,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>Initial Review of "Draft" Project Notification is POSITIVE</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5036,23 +5015,23 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f>IF((B3=""),"",VLOOKUP(B3,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B3=""),"",VLOOKUP(B3,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5060,23 +5039,23 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="str">
-        <f>IF((B4=""),"",VLOOKUP(B4,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B4=""),"",VLOOKUP(B4,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5084,23 +5063,23 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f>IF((B5=""),"",VLOOKUP(B5,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B5=""),"",VLOOKUP(B5,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5108,23 +5087,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="str">
-        <f>IF((B6=""),"",VLOOKUP(B6,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B6=""),"",VLOOKUP(B6,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5132,23 +5111,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f>IF((B7=""),"",VLOOKUP(B7,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B7=""),"",VLOOKUP(B7,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5156,23 +5135,23 @@
         <v>3</v>
       </c>
       <c r="C8" s="6" t="str">
-        <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5180,23 +5159,23 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="str">
-        <f>IF((B9=""),"",VLOOKUP(B9,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B9=""),"",VLOOKUP(B9,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5204,23 +5183,23 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="str">
-        <f>IF((B10=""),"",VLOOKUP(B10,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B10=""),"",VLOOKUP(B10,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5228,693 +5207,597 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="str">
-        <f>IF((B11=""),"",VLOOKUP(B11,Outcomes!$A$2:$D$15,4,FALSE))</f>
+        <f>IF((B11=""),"",VLOOKUP(B11,Outcomes!$A$2:$D$14,4,FALSE))</f>
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="8">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="str">
-        <f>IF((B12=""),"",VLOOKUP(B12,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Days are added to the PHASE END EVENT</v>
+        <f>IF((B12=""),"",VLOOKUP(B12,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="G12" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8">
         <v>7</v>
       </c>
       <c r="C13" s="6" t="str">
-        <f>IF((B13=""),"",VLOOKUP(B13,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Days are added to the PHASE END EVENT</v>
+        <f>IF((B13=""),"",VLOOKUP(B13,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8">
         <v>7</v>
       </c>
       <c r="C14" s="6" t="str">
-        <f>IF((B14=""),"",VLOOKUP(B14,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Days are added to the PHASE END EVENT</v>
+        <f>IF((B14=""),"",VLOOKUP(B14,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="G14" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8">
         <v>7</v>
       </c>
       <c r="C15" s="6" t="str">
-        <f>IF((B15=""),"",VLOOKUP(B15,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Days are added to the PHASE END EVENT</v>
+        <f>IF((B15=""),"",VLOOKUP(B15,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8">
         <v>8</v>
       </c>
       <c r="C16" s="6" t="str">
-        <f>IF((B16=""),"",VLOOKUP(B16,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <f>IF((B16=""),"",VLOOKUP(B16,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="G16" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="8">
         <v>8</v>
       </c>
       <c r="C17" s="6" t="str">
-        <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="8">
         <v>8</v>
       </c>
       <c r="C18" s="6" t="str">
-        <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G18" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" s="8">
         <v>8</v>
       </c>
       <c r="C19" s="6" t="str">
-        <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8">
         <v>9</v>
       </c>
       <c r="C20" s="6" t="str">
-        <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>No Further Review Required</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G20" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" s="8">
         <v>9</v>
       </c>
       <c r="C21" s="6" t="str">
-        <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>No Further Review Required</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="6" t="str">
-        <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>More Information Needed</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G22" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="6" t="str">
-        <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>More Information Needed</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G23" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" s="8">
         <v>10</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>No Further Review Required</v>
+        <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>More Information Needed</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G24" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="6" t="str">
-        <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>No Further Review Required</v>
+        <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G25" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" s="8">
         <v>11</v>
       </c>
       <c r="C26" s="6" t="str">
-        <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G26" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="6" t="str">
-        <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="G27" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B28" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="6" t="str">
-        <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="G28" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" s="8">
         <v>12</v>
       </c>
       <c r="C29" s="6" t="str">
-        <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Referred to Minister (s.11)</v>
+        <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="G29" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30" s="8">
         <v>12</v>
       </c>
       <c r="C30" s="6" t="str">
-        <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Referred to Minister (s.11)</v>
+        <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G30" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" s="8">
         <v>13</v>
       </c>
       <c r="C31" s="6" t="str">
-        <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="G31" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32" s="8">
         <v>13</v>
       </c>
       <c r="C32" s="6" t="str">
-        <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" s="8">
         <v>13</v>
       </c>
       <c r="C33" s="6" t="str">
-        <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G33" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B34" s="8">
         <v>13</v>
       </c>
       <c r="C34" s="6" t="str">
-        <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$14,4,FALSE))</f>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8">
-        <v>14</v>
-      </c>
-      <c r="C35" s="6" t="str">
-        <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8">
-        <v>14</v>
-      </c>
-      <c r="C36" s="6" t="str">
-        <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8">
-        <v>14</v>
-      </c>
-      <c r="C37" s="6" t="str">
-        <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
-        <v>14</v>
-      </c>
-      <c r="C38" s="6" t="str">
-        <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$15,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D42"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G38" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
+  <autoFilter ref="A1:G34" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD376E2D-0D02-46B5-8EB4-1C59799E70C5}">
           <x14:formula1>
-            <xm:f>Outcomes!$A$2:$A$15</xm:f>
+            <xm:f>Outcomes!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B38</xm:sqref>
+          <xm:sqref>B2:B34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5931,41 +5814,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.85546875" style="4"/>
-    <col min="60" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.88671875" style="4"/>
+    <col min="60" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5974,11 +5857,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -5986,15 +5869,15 @@
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -6037,7 +5920,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -6060,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>35</v>
@@ -6069,12 +5952,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -6092,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>38</v>
@@ -6101,49 +5984,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>34</v>
@@ -6155,12 +6038,12 @@
         <v>53</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>34</v>
@@ -6172,29 +6055,29 @@
         <v>75</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>34</v>
@@ -6203,12 +6086,12 @@
         <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>34</v>
@@ -6218,9 +6101,9 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>34</v>
@@ -6230,9 +6113,9 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>75</v>
@@ -6242,9 +6125,9 @@
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>75</v>
@@ -6254,9 +6137,9 @@
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>80</v>
@@ -6266,7 +6149,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -6277,15 +6160,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="s">
         <v>41</v>
       </c>
@@ -6293,7 +6176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="4" t="s">
         <v>41</v>
       </c>
@@ -6301,15 +6184,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="4" t="s">
         <v>41</v>
       </c>
@@ -6317,7 +6200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="4" t="s">
         <v>41</v>
       </c>
@@ -6325,23 +6208,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="4" t="s">
         <v>41</v>
       </c>
@@ -6349,7 +6232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="4" t="s">
         <v>53</v>
       </c>
@@ -6357,7 +6240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="4" t="s">
         <v>53</v>
       </c>
@@ -6365,7 +6248,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="4" t="s">
         <v>53</v>
       </c>
@@ -6373,7 +6256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="4" t="s">
         <v>53</v>
       </c>
@@ -6381,7 +6264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="4" t="s">
         <v>56</v>
       </c>
@@ -6389,7 +6272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="4" t="s">
         <v>56</v>
       </c>
@@ -6397,23 +6280,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34" s="4" t="s">
         <v>56</v>
       </c>
@@ -6421,41 +6304,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H36" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I36" s="2" t="s">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H37" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I37" s="2" t="s">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H38" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>45</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2E1EA-F9B0-46DA-86D9-7E19AB94FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13087F6D-9F69-48CE-A035-C63BA79AA7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="199">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -452,9 +452,6 @@
     <t>Time Limit Extended Milestone Bullet</t>
   </si>
   <si>
-    <t>s.45 Suspension of the Project Notification Process</t>
-  </si>
-  <si>
     <t>Time Limit Suspension</t>
   </si>
   <si>
@@ -465,9 +462,6 @@
   </si>
   <si>
     <t>Project Notification Process Suspended Milestone Bullet</t>
-  </si>
-  <si>
-    <t>s.45 Resumption of the Project Notification Process</t>
   </si>
   <si>
     <t>Time Limit Resumption</t>
@@ -1819,13 +1813,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1863,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
@@ -3095,23 +3089,26 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
         <v>31</v>
       </c>
       <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>78</v>
+      <c r="D32" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="E32" s="6" t="str">
         <f>IF((C32=""),"",VLOOKUP(C32,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>38</v>
@@ -3129,12 +3126,12 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>31</v>
@@ -3142,7 +3139,7 @@
       <c r="C33" s="8">
         <v>2</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E33" s="6" t="str">
@@ -3150,7 +3147,7 @@
         <v>Project Notification Review</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>56</v>
@@ -3171,28 +3168,28 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34" s="8">
         <v>2</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>82</v>
+      <c r="D34" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="E34" s="6" t="str">
         <f>IF((C34=""),"",VLOOKUP(C34,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>56</v>
@@ -3213,28 +3210,31 @@
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
         <v>34</v>
       </c>
       <c r="C35" s="8">
         <v>2</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>83</v>
+      <c r="D35" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E35" s="6" t="str">
         <f>IF((C35=""),"",VLOOKUP(C35,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>38</v>
@@ -3252,20 +3252,17 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36" s="8">
         <v>2</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="6" t="str">
@@ -3273,10 +3270,10 @@
         <v>Project Notification Review</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>38</v>
@@ -3294,28 +3291,28 @@
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C37" s="8">
         <v>2</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>86</v>
+      <c r="D37" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="E37" s="6" t="str">
         <f>IF((C37=""),"",VLOOKUP(C37,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>56</v>
@@ -3336,28 +3333,31 @@
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3">
         <v>37</v>
       </c>
       <c r="C38" s="8">
         <v>2</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>87</v>
+      <c r="D38" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="E38" s="6" t="str">
         <f>IF((C38=""),"",VLOOKUP(C38,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>38</v>
@@ -3375,31 +3375,28 @@
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>89</v>
+      <c r="D39" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="E39" s="6" t="str">
         <f>IF((C39=""),"",VLOOKUP(C39,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>38</v>
@@ -3417,28 +3414,28 @@
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C40" s="8">
         <v>2</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>90</v>
+      <c r="D40" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E40" s="6" t="str">
         <f>IF((C40=""),"",VLOOKUP(C40,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>56</v>
@@ -3459,28 +3456,31 @@
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
         <v>40</v>
       </c>
       <c r="C41" s="8">
         <v>2</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>43</v>
+      <c r="D41" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="E41" s="6" t="str">
         <f>IF((C41=""),"",VLOOKUP(C41,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>38</v>
@@ -3498,31 +3498,28 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C42" s="8">
         <v>2</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>91</v>
+      <c r="D42" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E42" s="6" t="str">
         <f>IF((C42=""),"",VLOOKUP(C42,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>38</v>
@@ -3540,73 +3537,70 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3">
-        <v>40</v>
-      </c>
-      <c r="C43" s="8">
+        <v>44</v>
+      </c>
+      <c r="C43" s="21">
         <v>2</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>92</v>
+      <c r="D43" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E43" s="6" t="str">
         <f>IF((C43=""),"",VLOOKUP(C43,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="C44" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="C44" s="20">
+        <v>3</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E44" s="6" t="str">
         <f>IF((C44=""),"",VLOOKUP(C44,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Review</v>
+        <v>Project Notification Decision</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I44" s="7" t="b">
         <v>0</v>
@@ -3618,40 +3612,40 @@
         <v>0</v>
       </c>
       <c r="L44" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="C45" s="21">
-        <v>2</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>93</v>
+        <v>46</v>
+      </c>
+      <c r="C45" s="8">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E45" s="6" t="str">
         <f>IF((C45=""),"",VLOOKUP(C45,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Review</v>
+        <v>Project Notification Decision</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3660,31 +3654,34 @@
         <v>1</v>
       </c>
       <c r="M45" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="C46" s="20">
+        <v>47</v>
+      </c>
+      <c r="B46" s="3">
+        <v>46</v>
+      </c>
+      <c r="C46" s="8">
         <v>3</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>94</v>
+      <c r="D46" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="E46" s="6" t="str">
         <f>IF((C46=""),"",VLOOKUP(C46,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I46" s="7" t="b">
         <v>0</v>
@@ -3699,25 +3696,25 @@
         <v>1</v>
       </c>
       <c r="M46" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" s="8">
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="E47" s="6" t="str">
         <f>IF((C47=""),"",VLOOKUP(C47,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>34</v>
@@ -3729,46 +3726,43 @@
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C48" s="8">
         <v>3</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>98</v>
+      <c r="D48" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E48" s="6" t="str">
         <f>IF((C48=""),"",VLOOKUP(C48,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -3777,31 +3771,34 @@
         <v>0</v>
       </c>
       <c r="L48" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B49" s="3">
+        <v>49</v>
       </c>
       <c r="C49" s="8">
         <v>3</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>42</v>
+      <c r="D49" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="E49" s="6" t="str">
         <f>IF((C49=""),"",VLOOKUP(C49,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>38</v>
@@ -3819,34 +3816,37 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
+        <v>51</v>
+      </c>
+      <c r="B50" s="3">
         <v>49</v>
       </c>
       <c r="C50" s="8">
         <v>3</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>73</v>
+      <c r="D50" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="E50" s="6" t="str">
         <f>IF((C50=""),"",VLOOKUP(C50,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I50" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -3858,21 +3858,21 @@
         <v>0</v>
       </c>
       <c r="M50" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B51" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C51" s="8">
         <v>3</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E51" s="6" t="str">
         <f>IF((C51=""),"",VLOOKUP(C51,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -3900,21 +3900,21 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C52" s="8">
         <v>3</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E52" s="6" t="str">
         <f>IF((C52=""),"",VLOOKUP(C52,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -3942,28 +3942,31 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="B53" s="3">
+        <v>55</v>
       </c>
       <c r="C53" s="8">
         <v>3</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>78</v>
+      <c r="D53" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="E53" s="6" t="str">
         <f>IF((C53=""),"",VLOOKUP(C53,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>38</v>
@@ -3981,28 +3984,28 @@
         <v>0</v>
       </c>
       <c r="M53" s="3">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C54" s="8">
         <v>3</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>81</v>
+      <c r="D54" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E54" s="6" t="str">
         <f>IF((C54=""),"",VLOOKUP(C54,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>56</v>
@@ -4023,31 +4026,28 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C55" s="8">
         <v>3</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>82</v>
+      <c r="D55" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="E55" s="6" t="str">
         <f>IF((C55=""),"",VLOOKUP(C55,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>38</v>
@@ -4065,28 +4065,31 @@
         <v>0</v>
       </c>
       <c r="M55" s="3">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="B56" s="3">
+        <v>58</v>
       </c>
       <c r="C56" s="8">
         <v>3</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>83</v>
+      <c r="D56" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="E56" s="6" t="str">
         <f>IF((C56=""),"",VLOOKUP(C56,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>38</v>
@@ -4104,28 +4107,28 @@
         <v>0</v>
       </c>
       <c r="M56" s="3">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C57" s="8">
         <v>3</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>85</v>
+      <c r="D57" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="E57" s="6" t="str">
         <f>IF((C57=""),"",VLOOKUP(C57,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>56</v>
@@ -4146,31 +4149,28 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C58" s="8">
         <v>3</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>86</v>
+      <c r="D58" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="E58" s="6" t="str">
         <f>IF((C58=""),"",VLOOKUP(C58,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>38</v>
@@ -4188,28 +4188,31 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="B59" s="3">
+        <v>61</v>
       </c>
       <c r="C59" s="8">
         <v>3</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>87</v>
+      <c r="D59" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E59" s="6" t="str">
         <f>IF((C59=""),"",VLOOKUP(C59,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>38</v>
@@ -4227,28 +4230,28 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B60" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C60" s="8">
         <v>3</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>89</v>
+      <c r="D60" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="E60" s="6" t="str">
         <f>IF((C60=""),"",VLOOKUP(C60,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>56</v>
@@ -4269,31 +4272,28 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C61" s="8">
         <v>3</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>90</v>
+      <c r="D61" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E61" s="6" t="str">
         <f>IF((C61=""),"",VLOOKUP(C61,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>38</v>
@@ -4311,60 +4311,60 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="C62" s="8">
+        <v>65</v>
+      </c>
+      <c r="C62" s="21">
         <v>3</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>43</v>
+      <c r="D62" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="E62" s="6" t="str">
         <f>IF((C62=""),"",VLOOKUP(C62,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I62" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B63" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C63" s="8">
         <v>3</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E63" s="6" t="str">
         <f>IF((C63=""),"",VLOOKUP(C63,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -4389,24 +4389,24 @@
         <v>0</v>
       </c>
       <c r="L63" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="3">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B64" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C64" s="8">
         <v>3</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E64" s="6" t="str">
         <f>IF((C64=""),"",VLOOKUP(C64,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -4431,177 +4431,15 @@
         <v>0</v>
       </c>
       <c r="L64" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="C65" s="8">
-        <v>3</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="6" t="str">
-        <f>IF((C65=""),"",VLOOKUP(C65,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Decision</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I65" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="C66" s="21">
-        <v>3</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="6" t="str">
-        <f>IF((C66=""),"",VLOOKUP(C66,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Decision</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2">
-        <v>10</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M66" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3">
-        <v>65</v>
-      </c>
-      <c r="C67" s="8">
-        <v>3</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="6" t="str">
-        <f>IF((C67=""),"",VLOOKUP(C67,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Decision</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I67" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
-        <v>65</v>
-      </c>
-      <c r="C68" s="8">
-        <v>3</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="6" t="str">
-        <f>IF((C68=""),"",VLOOKUP(C68,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Decision</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
-      <c r="L68" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68" s="3">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M68" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}"/>
-  <conditionalFormatting sqref="H1:H68">
+  <autoFilter ref="A1:M64" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}"/>
+  <conditionalFormatting sqref="H1:H64">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
       <formula>NOT(ISERROR(SEARCH("END",H1)))</formula>
     </cfRule>
@@ -4617,31 +4455,31 @@
           <x14:formula1>
             <xm:f>Lookups!$M$3:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L68</xm:sqref>
+          <xm:sqref>L2:L64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52DB5617-9AC6-42B3-A0A1-82418CF13405}">
           <x14:formula1>
             <xm:f>Lookups!$K$3:$K$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G68</xm:sqref>
+          <xm:sqref>G2:G64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65DF4310-1509-4DE8-8535-DCDB722824BD}">
           <x14:formula1>
             <xm:f>Lookups!$Q$3:$Q$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H68</xm:sqref>
+          <xm:sqref>H2:H64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E633788-78DC-4B8E-B8EE-32416443C2DA}">
           <x14:formula1>
             <xm:f>Lookups!$S$3:$S$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I68</xm:sqref>
+          <xm:sqref>I2:I64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{486DEDE7-BAAD-4F07-BF86-68CC65BA16B7}">
           <x14:formula1>
             <xm:f>Lookups!$I$3:$I$39</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F68</xm:sqref>
+          <xm:sqref>F2:F64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4674,13 +4512,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -4694,11 +4532,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>IF((B2=""),"",VLOOKUP(B2,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B2=""),"",VLOOKUP(B2,Events!$A$2:$D$64,4,FALSE))</f>
         <v>"Draft" Project Notification Initial Review</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -4712,11 +4550,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f>IF((B3=""),"",VLOOKUP(B3,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B3=""),"",VLOOKUP(B3,Events!$A$2:$D$64,4,FALSE))</f>
         <v>"Draft" Project Notification Initial Review</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -4730,11 +4568,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="str">
-        <f>IF((B4=""),"",VLOOKUP(B4,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B4=""),"",VLOOKUP(B4,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Withdrawn</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -4748,11 +4586,11 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f>IF((B5=""),"",VLOOKUP(B5,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B5=""),"",VLOOKUP(B5,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Notification Submission</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -4766,11 +4604,11 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="str">
-        <f>IF((B6=""),"",VLOOKUP(B6,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B6=""),"",VLOOKUP(B6,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Delegation of Decision</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -4784,11 +4622,11 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f>IF((B7=""),"",VLOOKUP(B7,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B7=""),"",VLOOKUP(B7,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Delegation of Decision</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -4802,11 +4640,11 @@
         <v>37</v>
       </c>
       <c r="C8" s="6" t="str">
-        <f>IF((B8=""),"",VLOOKUP(B8,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B8=""),"",VLOOKUP(B8,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="3">
         <v>8</v>
@@ -4820,11 +4658,11 @@
         <v>40</v>
       </c>
       <c r="C9" s="6" t="str">
-        <f>IF((B9=""),"",VLOOKUP(B9,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B9=""),"",VLOOKUP(B9,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Withdrawn</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3">
         <v>9</v>
@@ -4838,11 +4676,11 @@
         <v>65</v>
       </c>
       <c r="C10" s="6" t="str">
-        <f>IF((B10=""),"",VLOOKUP(B10,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B10=""),"",VLOOKUP(B10,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Decision: Project Notification</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
@@ -4856,11 +4694,11 @@
         <v>65</v>
       </c>
       <c r="C11" s="6" t="str">
-        <f>IF((B11=""),"",VLOOKUP(B11,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B11=""),"",VLOOKUP(B11,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Decision: Project Notification</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" s="3">
         <v>11</v>
@@ -4874,11 +4712,11 @@
         <v>65</v>
       </c>
       <c r="C12" s="6" t="str">
-        <f>IF((B12=""),"",VLOOKUP(B12,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B12=""),"",VLOOKUP(B12,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Decision: Project Notification</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3">
         <v>12</v>
@@ -4892,11 +4730,11 @@
         <v>58</v>
       </c>
       <c r="C13" s="6" t="str">
-        <f>IF((B13=""),"",VLOOKUP(B13,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B13=""),"",VLOOKUP(B13,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3">
         <v>13</v>
@@ -4910,11 +4748,11 @@
         <v>61</v>
       </c>
       <c r="C14" s="6" t="str">
-        <f>IF((B14=""),"",VLOOKUP(B14,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B14=""),"",VLOOKUP(B14,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Withdrawn</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3">
         <v>14</v>
@@ -4927,7 +4765,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{104E34E7-1558-4F0E-B347-AA979B498781}">
           <x14:formula1>
-            <xm:f>Events!$A$2:$A$68</xm:f>
+            <xm:f>Events!$A$2:$A$64</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B14</xm:sqref>
         </x14:dataValidation>
@@ -4941,7 +4779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -4965,19 +4803,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -4995,13 +4833,13 @@
         <v>Initial Review of "Draft" Project Notification is POSITIVE</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -5019,13 +4857,13 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -5043,13 +4881,13 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -5067,13 +4905,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -5091,13 +4929,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -5115,13 +4953,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -5139,13 +4977,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -5163,13 +5001,13 @@
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -5187,13 +5025,13 @@
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -5211,13 +5049,13 @@
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -5235,13 +5073,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G12" s="3">
         <v>15</v>
@@ -5259,13 +5097,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G13" s="3">
         <v>16</v>
@@ -5283,13 +5121,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G14" s="3">
         <v>17</v>
@@ -5307,13 +5145,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G15" s="3">
         <v>18</v>
@@ -5331,13 +5169,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G16" s="3">
         <v>19</v>
@@ -5355,13 +5193,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G17" s="3">
         <v>20</v>
@@ -5379,13 +5217,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G18" s="3">
         <v>21</v>
@@ -5403,13 +5241,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G19" s="3">
         <v>22</v>
@@ -5427,13 +5265,13 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G20" s="3">
         <v>23</v>
@@ -5451,13 +5289,13 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G21" s="3">
         <v>24</v>
@@ -5475,13 +5313,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="G22" s="3">
         <v>25</v>
@@ -5499,13 +5337,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G23" s="3">
         <v>26</v>
@@ -5523,13 +5361,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G24" s="3">
         <v>27</v>
@@ -5547,13 +5385,13 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G25" s="3">
         <v>28</v>
@@ -5571,13 +5409,13 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G26" s="3">
         <v>29</v>
@@ -5595,13 +5433,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G27" s="3">
         <v>30</v>
@@ -5619,13 +5457,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G28" s="3">
         <v>31</v>
@@ -5643,13 +5481,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G29" s="3">
         <v>32</v>
@@ -5667,13 +5505,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G30" s="3">
         <v>33</v>
@@ -5691,13 +5529,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G31" s="3">
         <v>34</v>
@@ -5715,13 +5553,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G32" s="3">
         <v>35</v>
@@ -5739,13 +5577,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G33" s="3">
         <v>36</v>
@@ -5763,13 +5601,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" s="3">
         <v>37</v>
@@ -5848,7 +5686,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5857,11 +5695,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -5869,15 +5707,15 @@
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -5934,7 +5772,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>34</v>
@@ -5943,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>35</v>
@@ -5954,10 +5792,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -5975,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>38</v>
@@ -5986,22 +5824,22 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>48</v>
@@ -6009,41 +5847,41 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>34</v>
@@ -6055,29 +5893,29 @@
         <v>75</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>34</v>
@@ -6086,12 +5924,12 @@
         <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>34</v>
@@ -6103,7 +5941,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>34</v>
@@ -6115,7 +5953,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>75</v>
@@ -6127,7 +5965,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>75</v>
@@ -6139,13 +5977,13 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O15" s="9"/>
     </row>
@@ -6154,10 +5992,10 @@
         <v>45</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
@@ -6165,7 +6003,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
@@ -6181,7 +6019,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
@@ -6189,7 +6027,7 @@
         <v>41</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -6213,7 +6051,7 @@
         <v>41</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -6221,7 +6059,7 @@
         <v>41</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
@@ -6285,7 +6123,7 @@
         <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -6293,7 +6131,7 @@
         <v>56</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -6306,39 +6144,39 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>45</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13087F6D-9F69-48CE-A035-C63BA79AA7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61FEF4-C16C-4864-9E9D-20B7BD366ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="1" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="203">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -813,6 +813,18 @@
   </si>
   <si>
     <t>MultipleDays</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>MANDATORY</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
   </si>
 </sst>
 </file>
@@ -1436,13 +1448,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789B1A8-4095-496B-ABDA-23EBF7B52DFC}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,12 +1463,12 @@
     <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1479,10 +1491,13 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1504,11 +1519,14 @@
       <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1530,11 +1548,14 @@
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1556,7 +1577,10 @@
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1815,11 +1839,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD53"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1831,8 +1855,7 @@
     <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
     <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -1872,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -1910,8 +1933,8 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="8" t="b">
-        <v>1</v>
+      <c r="L2" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
@@ -1949,8 +1972,8 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="8" t="b">
-        <v>1</v>
+      <c r="L3" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -1988,8 +2011,8 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="8" t="b">
-        <v>1</v>
+      <c r="L4" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
@@ -2027,8 +2050,8 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="8" t="b">
-        <v>0</v>
+      <c r="L5" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M5" s="3">
         <v>4</v>
@@ -2066,8 +2089,8 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="8" t="b">
-        <v>0</v>
+      <c r="L6" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
@@ -2105,8 +2128,8 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="8" t="b">
-        <v>0</v>
+      <c r="L7" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
@@ -2144,8 +2167,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="8" t="b">
-        <v>1</v>
+      <c r="L8" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -2183,8 +2206,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="8" t="b">
-        <v>1</v>
+      <c r="L9" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M9" s="3">
         <v>8</v>
@@ -2222,8 +2245,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="8" t="b">
-        <v>1</v>
+      <c r="L10" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
@@ -2261,8 +2284,8 @@
       <c r="K11" s="3">
         <v>30</v>
       </c>
-      <c r="L11" s="8" t="b">
-        <v>1</v>
+      <c r="L11" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M11" s="3">
         <v>10</v>
@@ -2303,8 +2326,8 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="8" t="b">
-        <v>1</v>
+      <c r="L12" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M12" s="3">
         <v>11</v>
@@ -2345,8 +2368,8 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="8" t="b">
-        <v>1</v>
+      <c r="L13" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M13" s="3">
         <v>12</v>
@@ -2387,8 +2410,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="8" t="b">
-        <v>1</v>
+      <c r="L14" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M14" s="3">
         <v>13</v>
@@ -2429,8 +2452,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="8" t="b">
-        <v>1</v>
+      <c r="L15" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M15" s="3">
         <v>14</v>
@@ -2468,8 +2491,8 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="8" t="b">
-        <v>0</v>
+      <c r="L16" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M16" s="3">
         <v>15</v>
@@ -2507,8 +2530,8 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="8" t="b">
-        <v>0</v>
+      <c r="L17" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M17" s="3">
         <v>16</v>
@@ -2549,8 +2572,8 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="8" t="b">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M18" s="3">
         <v>17</v>
@@ -2588,8 +2611,8 @@
       <c r="K19" s="3">
         <v>30</v>
       </c>
-      <c r="L19" s="8" t="b">
-        <v>0</v>
+      <c r="L19" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M19" s="3">
         <v>18</v>
@@ -2630,8 +2653,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="8" t="b">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M20" s="3">
         <v>19</v>
@@ -2672,8 +2695,8 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="8" t="b">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M21" s="3">
         <v>20</v>
@@ -2714,8 +2737,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="8" t="b">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M22" s="3">
         <v>21</v>
@@ -2756,8 +2779,8 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="8" t="b">
-        <v>0</v>
+      <c r="L23" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M23" s="3">
         <v>22</v>
@@ -2795,8 +2818,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="8" t="b">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M24" s="3">
         <v>23</v>
@@ -2834,8 +2857,8 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="8" t="b">
-        <v>0</v>
+      <c r="L25" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M25" s="3">
         <v>24</v>
@@ -2873,8 +2896,8 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="8" t="b">
-        <v>0</v>
+      <c r="L26" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M26" s="3">
         <v>25</v>
@@ -2915,8 +2938,8 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="8" t="b">
-        <v>0</v>
+      <c r="L27" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M27" s="3">
         <v>26</v>
@@ -2957,8 +2980,8 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="8" t="b">
-        <v>0</v>
+      <c r="L28" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M28" s="3">
         <v>27</v>
@@ -2996,8 +3019,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="8" t="b">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M29" s="3">
         <v>28</v>
@@ -3038,8 +3061,8 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="8" t="b">
-        <v>0</v>
+      <c r="L30" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M30" s="3">
         <v>29</v>
@@ -3080,8 +3103,8 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="8" t="b">
-        <v>0</v>
+      <c r="L31" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M31" s="3">
         <v>30</v>
@@ -3122,8 +3145,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="8" t="b">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M32" s="3">
         <v>32</v>
@@ -3164,8 +3187,8 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="8" t="b">
-        <v>0</v>
+      <c r="L33" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M33" s="3">
         <v>33</v>
@@ -3206,8 +3229,8 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="8" t="b">
-        <v>0</v>
+      <c r="L34" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M34" s="3">
         <v>35</v>
@@ -3248,8 +3271,8 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="8" t="b">
-        <v>0</v>
+      <c r="L35" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M35" s="3">
         <v>36</v>
@@ -3287,8 +3310,8 @@
       <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="8" t="b">
-        <v>0</v>
+      <c r="L36" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M36" s="3">
         <v>37</v>
@@ -3329,8 +3352,8 @@
       <c r="K37" s="3">
         <v>0</v>
       </c>
-      <c r="L37" s="8" t="b">
-        <v>0</v>
+      <c r="L37" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M37" s="3">
         <v>38</v>
@@ -3371,8 +3394,8 @@
       <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="L38" s="8" t="b">
-        <v>0</v>
+      <c r="L38" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M38" s="3">
         <v>39</v>
@@ -3410,8 +3433,8 @@
       <c r="K39" s="3">
         <v>0</v>
       </c>
-      <c r="L39" s="8" t="b">
-        <v>0</v>
+      <c r="L39" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M39" s="3">
         <v>40</v>
@@ -3452,8 +3475,8 @@
       <c r="K40" s="3">
         <v>0</v>
       </c>
-      <c r="L40" s="8" t="b">
-        <v>0</v>
+      <c r="L40" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M40" s="3">
         <v>41</v>
@@ -3494,8 +3517,8 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="8" t="b">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M41" s="3">
         <v>42</v>
@@ -3533,8 +3556,8 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="8" t="b">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M42" s="3">
         <v>43</v>
@@ -3572,8 +3595,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="8" t="b">
-        <v>1</v>
+      <c r="L43" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M43" s="3">
         <v>44</v>
@@ -3611,8 +3634,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="8" t="b">
-        <v>1</v>
+      <c r="L44" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M44" s="3">
         <v>45</v>
@@ -3650,8 +3673,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="8" t="b">
-        <v>1</v>
+      <c r="L45" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M45" s="3">
         <v>46</v>
@@ -3692,8 +3715,8 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="8" t="b">
-        <v>1</v>
+      <c r="L46" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M46" s="3">
         <v>47</v>
@@ -3731,8 +3754,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="8" t="b">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M47" s="3">
         <v>48</v>
@@ -3770,8 +3793,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="8" t="b">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M48" s="3">
         <v>49</v>
@@ -3812,8 +3835,8 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="8" t="b">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M49" s="3">
         <v>50</v>
@@ -3854,8 +3877,8 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="8" t="b">
-        <v>0</v>
+      <c r="L50" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M50" s="3">
         <v>51</v>
@@ -3896,8 +3919,8 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="8" t="b">
-        <v>0</v>
+      <c r="L51" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M51" s="3">
         <v>53</v>
@@ -3938,8 +3961,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="8" t="b">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M52" s="3">
         <v>54</v>
@@ -3980,8 +4003,8 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="8" t="b">
-        <v>0</v>
+      <c r="L53" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M53" s="3">
         <v>56</v>
@@ -4022,8 +4045,8 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="8" t="b">
-        <v>0</v>
+      <c r="L54" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M54" s="3">
         <v>57</v>
@@ -4061,8 +4084,8 @@
       <c r="K55" s="3">
         <v>0</v>
       </c>
-      <c r="L55" s="8" t="b">
-        <v>0</v>
+      <c r="L55" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M55" s="3">
         <v>58</v>
@@ -4103,8 +4126,8 @@
       <c r="K56" s="3">
         <v>0</v>
       </c>
-      <c r="L56" s="8" t="b">
-        <v>0</v>
+      <c r="L56" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M56" s="3">
         <v>59</v>
@@ -4145,8 +4168,8 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="8" t="b">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M57" s="3">
         <v>60</v>
@@ -4184,8 +4207,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="8" t="b">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M58" s="3">
         <v>61</v>
@@ -4226,8 +4249,8 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="8" t="b">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M59" s="3">
         <v>62</v>
@@ -4268,8 +4291,8 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="8" t="b">
-        <v>0</v>
+      <c r="L60" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M60" s="3">
         <v>63</v>
@@ -4307,8 +4330,8 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="8" t="b">
-        <v>0</v>
+      <c r="L61" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M61" s="3">
         <v>64</v>
@@ -4346,8 +4369,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="8" t="b">
-        <v>1</v>
+      <c r="L62" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M62" s="3">
         <v>65</v>
@@ -4388,8 +4411,8 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="8" t="b">
-        <v>1</v>
+      <c r="L63" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M63" s="3">
         <v>66</v>
@@ -4430,8 +4453,8 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="8" t="b">
-        <v>1</v>
+      <c r="L64" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M64" s="3">
         <v>67</v>
@@ -4450,13 +4473,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94FEBB1-315A-4609-9BCC-2B9E16A284E8}">
-          <x14:formula1>
-            <xm:f>Lookups!$M$3:$M$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L64</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52DB5617-9AC6-42B3-A0A1-82418CF13405}">
           <x14:formula1>
             <xm:f>Lookups!$K$3:$K$9</xm:f>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2E1EA-F9B0-46DA-86D9-7E19AB94FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61FEF4-C16C-4864-9E9D-20B7BD366ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="1" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="203">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -452,9 +452,6 @@
     <t>Time Limit Extended Milestone Bullet</t>
   </si>
   <si>
-    <t>s.45 Suspension of the Project Notification Process</t>
-  </si>
-  <si>
     <t>Time Limit Suspension</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>Project Notification Process Suspended Milestone Bullet</t>
   </si>
   <si>
-    <t>s.45 Resumption of the Project Notification Process</t>
-  </si>
-  <si>
     <t>Time Limit Resumption</t>
   </si>
   <si>
@@ -819,6 +813,18 @@
   </si>
   <si>
     <t>MultipleDays</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>MANDATORY</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
   </si>
 </sst>
 </file>
@@ -1442,13 +1448,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789B1A8-4095-496B-ABDA-23EBF7B52DFC}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,12 +1463,12 @@
     <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1485,10 +1491,13 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1510,11 +1519,14 @@
       <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1536,11 +1548,14 @@
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1562,7 +1577,10 @@
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1819,13 +1837,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,8 +1855,7 @@
     <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
     <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -1869,7 +1886,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
@@ -1878,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -1916,8 +1933,8 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="8" t="b">
-        <v>1</v>
+      <c r="L2" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
@@ -1955,8 +1972,8 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="8" t="b">
-        <v>1</v>
+      <c r="L3" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -1994,8 +2011,8 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="8" t="b">
-        <v>1</v>
+      <c r="L4" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
@@ -2033,8 +2050,8 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="8" t="b">
-        <v>0</v>
+      <c r="L5" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M5" s="3">
         <v>4</v>
@@ -2072,8 +2089,8 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="8" t="b">
-        <v>0</v>
+      <c r="L6" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
@@ -2111,8 +2128,8 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="8" t="b">
-        <v>0</v>
+      <c r="L7" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
@@ -2150,8 +2167,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="8" t="b">
-        <v>1</v>
+      <c r="L8" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -2189,8 +2206,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="8" t="b">
-        <v>1</v>
+      <c r="L9" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M9" s="3">
         <v>8</v>
@@ -2228,8 +2245,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="8" t="b">
-        <v>1</v>
+      <c r="L10" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
@@ -2267,8 +2284,8 @@
       <c r="K11" s="3">
         <v>30</v>
       </c>
-      <c r="L11" s="8" t="b">
-        <v>1</v>
+      <c r="L11" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M11" s="3">
         <v>10</v>
@@ -2309,8 +2326,8 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="8" t="b">
-        <v>1</v>
+      <c r="L12" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M12" s="3">
         <v>11</v>
@@ -2351,8 +2368,8 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="8" t="b">
-        <v>1</v>
+      <c r="L13" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M13" s="3">
         <v>12</v>
@@ -2393,8 +2410,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="8" t="b">
-        <v>1</v>
+      <c r="L14" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M14" s="3">
         <v>13</v>
@@ -2435,8 +2452,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="8" t="b">
-        <v>1</v>
+      <c r="L15" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M15" s="3">
         <v>14</v>
@@ -2474,8 +2491,8 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="8" t="b">
-        <v>0</v>
+      <c r="L16" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M16" s="3">
         <v>15</v>
@@ -2513,8 +2530,8 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="8" t="b">
-        <v>0</v>
+      <c r="L17" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M17" s="3">
         <v>16</v>
@@ -2555,8 +2572,8 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="8" t="b">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M18" s="3">
         <v>17</v>
@@ -2594,8 +2611,8 @@
       <c r="K19" s="3">
         <v>30</v>
       </c>
-      <c r="L19" s="8" t="b">
-        <v>0</v>
+      <c r="L19" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M19" s="3">
         <v>18</v>
@@ -2636,8 +2653,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="8" t="b">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M20" s="3">
         <v>19</v>
@@ -2678,8 +2695,8 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="8" t="b">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M21" s="3">
         <v>20</v>
@@ -2720,8 +2737,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="8" t="b">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M22" s="3">
         <v>21</v>
@@ -2762,8 +2779,8 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="8" t="b">
-        <v>0</v>
+      <c r="L23" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M23" s="3">
         <v>22</v>
@@ -2801,8 +2818,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="8" t="b">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M24" s="3">
         <v>23</v>
@@ -2840,8 +2857,8 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="8" t="b">
-        <v>0</v>
+      <c r="L25" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M25" s="3">
         <v>24</v>
@@ -2879,8 +2896,8 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="8" t="b">
-        <v>0</v>
+      <c r="L26" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M26" s="3">
         <v>25</v>
@@ -2921,8 +2938,8 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="8" t="b">
-        <v>0</v>
+      <c r="L27" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M27" s="3">
         <v>26</v>
@@ -2963,8 +2980,8 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="8" t="b">
-        <v>0</v>
+      <c r="L28" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M28" s="3">
         <v>27</v>
@@ -3002,8 +3019,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="8" t="b">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M29" s="3">
         <v>28</v>
@@ -3044,8 +3061,8 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="8" t="b">
-        <v>0</v>
+      <c r="L30" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M30" s="3">
         <v>29</v>
@@ -3086,8 +3103,8 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="8" t="b">
-        <v>0</v>
+      <c r="L31" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M31" s="3">
         <v>30</v>
@@ -3095,23 +3112,26 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
         <v>31</v>
       </c>
       <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>78</v>
+      <c r="D32" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="E32" s="6" t="str">
         <f>IF((C32=""),"",VLOOKUP(C32,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>38</v>
@@ -3125,16 +3145,16 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="8" t="b">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M32" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>31</v>
@@ -3142,7 +3162,7 @@
       <c r="C33" s="8">
         <v>2</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E33" s="6" t="str">
@@ -3150,7 +3170,7 @@
         <v>Project Notification Review</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>56</v>
@@ -3167,32 +3187,32 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="8" t="b">
-        <v>0</v>
+      <c r="L33" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34" s="8">
         <v>2</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>82</v>
+      <c r="D34" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="E34" s="6" t="str">
         <f>IF((C34=""),"",VLOOKUP(C34,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>56</v>
@@ -3209,32 +3229,35 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="8" t="b">
-        <v>0</v>
+      <c r="L34" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M34" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
         <v>34</v>
       </c>
       <c r="C35" s="8">
         <v>2</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>83</v>
+      <c r="D35" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E35" s="6" t="str">
         <f>IF((C35=""),"",VLOOKUP(C35,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>38</v>
@@ -3248,24 +3271,21 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="8" t="b">
-        <v>0</v>
+      <c r="L35" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M35" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36" s="8">
         <v>2</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="6" t="str">
@@ -3273,10 +3293,10 @@
         <v>Project Notification Review</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>38</v>
@@ -3290,32 +3310,32 @@
       <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="8" t="b">
-        <v>0</v>
+      <c r="L36" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M36" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C37" s="8">
         <v>2</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>86</v>
+      <c r="D37" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="E37" s="6" t="str">
         <f>IF((C37=""),"",VLOOKUP(C37,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>56</v>
@@ -3332,32 +3352,35 @@
       <c r="K37" s="3">
         <v>0</v>
       </c>
-      <c r="L37" s="8" t="b">
-        <v>0</v>
+      <c r="L37" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M37" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3">
         <v>37</v>
       </c>
       <c r="C38" s="8">
         <v>2</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>87</v>
+      <c r="D38" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="E38" s="6" t="str">
         <f>IF((C38=""),"",VLOOKUP(C38,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>38</v>
@@ -3371,35 +3394,32 @@
       <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="L38" s="8" t="b">
-        <v>0</v>
+      <c r="L38" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M38" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>89</v>
+      <c r="D39" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="E39" s="6" t="str">
         <f>IF((C39=""),"",VLOOKUP(C39,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>38</v>
@@ -3413,32 +3433,32 @@
       <c r="K39" s="3">
         <v>0</v>
       </c>
-      <c r="L39" s="8" t="b">
-        <v>0</v>
+      <c r="L39" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M39" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C40" s="8">
         <v>2</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>90</v>
+      <c r="D40" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E40" s="6" t="str">
         <f>IF((C40=""),"",VLOOKUP(C40,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>56</v>
@@ -3455,32 +3475,35 @@
       <c r="K40" s="3">
         <v>0</v>
       </c>
-      <c r="L40" s="8" t="b">
-        <v>0</v>
+      <c r="L40" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M40" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
         <v>40</v>
       </c>
       <c r="C41" s="8">
         <v>2</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>43</v>
+      <c r="D41" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="E41" s="6" t="str">
         <f>IF((C41=""),"",VLOOKUP(C41,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>38</v>
@@ -3494,35 +3517,32 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="8" t="b">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M41" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C42" s="8">
         <v>2</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>91</v>
+      <c r="D42" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E42" s="6" t="str">
         <f>IF((C42=""),"",VLOOKUP(C42,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>38</v>
@@ -3536,77 +3556,74 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="8" t="b">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M42" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3">
-        <v>40</v>
-      </c>
-      <c r="C43" s="8">
+        <v>44</v>
+      </c>
+      <c r="C43" s="21">
         <v>2</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>92</v>
+      <c r="D43" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E43" s="6" t="str">
         <f>IF((C43=""),"",VLOOKUP(C43,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Review</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="8" t="b">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M43" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="C44" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="C44" s="20">
+        <v>3</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E44" s="6" t="str">
         <f>IF((C44=""),"",VLOOKUP(C44,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Review</v>
+        <v>Project Notification Decision</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I44" s="7" t="b">
         <v>0</v>
@@ -3617,74 +3634,77 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="8" t="b">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M44" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="C45" s="21">
-        <v>2</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>93</v>
+        <v>46</v>
+      </c>
+      <c r="C45" s="8">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E45" s="6" t="str">
         <f>IF((C45=""),"",VLOOKUP(C45,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Review</v>
+        <v>Project Notification Decision</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I45" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="8" t="b">
-        <v>1</v>
+      <c r="L45" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M45" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="C46" s="20">
+        <v>47</v>
+      </c>
+      <c r="B46" s="3">
+        <v>46</v>
+      </c>
+      <c r="C46" s="8">
         <v>3</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>94</v>
+      <c r="D46" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="E46" s="6" t="str">
         <f>IF((C46=""),"",VLOOKUP(C46,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I46" s="7" t="b">
         <v>0</v>
@@ -3695,29 +3715,29 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="8" t="b">
-        <v>1</v>
+      <c r="L46" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M46" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" s="8">
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="E47" s="6" t="str">
         <f>IF((C47=""),"",VLOOKUP(C47,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>34</v>
@@ -3729,46 +3749,43 @@
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="8" t="b">
-        <v>1</v>
+      <c r="L47" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M47" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C48" s="8">
         <v>3</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>98</v>
+      <c r="D48" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E48" s="6" t="str">
         <f>IF((C48=""),"",VLOOKUP(C48,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -3776,32 +3793,35 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="8" t="b">
-        <v>1</v>
+      <c r="L48" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M48" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B49" s="3">
+        <v>49</v>
       </c>
       <c r="C49" s="8">
         <v>3</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>42</v>
+      <c r="D49" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="E49" s="6" t="str">
         <f>IF((C49=""),"",VLOOKUP(C49,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>38</v>
@@ -3815,38 +3835,41 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="8" t="b">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M49" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
+        <v>51</v>
+      </c>
+      <c r="B50" s="3">
         <v>49</v>
       </c>
       <c r="C50" s="8">
         <v>3</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>73</v>
+      <c r="D50" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="E50" s="6" t="str">
         <f>IF((C50=""),"",VLOOKUP(C50,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I50" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -3854,25 +3877,25 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="8" t="b">
-        <v>0</v>
+      <c r="L50" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M50" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B51" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C51" s="8">
         <v>3</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E51" s="6" t="str">
         <f>IF((C51=""),"",VLOOKUP(C51,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -3896,25 +3919,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="8" t="b">
-        <v>0</v>
+      <c r="L51" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M51" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C52" s="8">
         <v>3</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E52" s="6" t="str">
         <f>IF((C52=""),"",VLOOKUP(C52,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -3938,32 +3961,35 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="8" t="b">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M52" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="B53" s="3">
+        <v>55</v>
       </c>
       <c r="C53" s="8">
         <v>3</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>78</v>
+      <c r="D53" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="E53" s="6" t="str">
         <f>IF((C53=""),"",VLOOKUP(C53,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>38</v>
@@ -3977,32 +4003,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="8" t="b">
-        <v>0</v>
+      <c r="L53" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M53" s="3">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C54" s="8">
         <v>3</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>81</v>
+      <c r="D54" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E54" s="6" t="str">
         <f>IF((C54=""),"",VLOOKUP(C54,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>56</v>
@@ -4019,35 +4045,32 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="8" t="b">
-        <v>0</v>
+      <c r="L54" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M54" s="3">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C55" s="8">
         <v>3</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>82</v>
+      <c r="D55" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="E55" s="6" t="str">
         <f>IF((C55=""),"",VLOOKUP(C55,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>38</v>
@@ -4061,32 +4084,35 @@
       <c r="K55" s="3">
         <v>0</v>
       </c>
-      <c r="L55" s="8" t="b">
-        <v>0</v>
+      <c r="L55" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M55" s="3">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="B56" s="3">
+        <v>58</v>
       </c>
       <c r="C56" s="8">
         <v>3</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>83</v>
+      <c r="D56" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="E56" s="6" t="str">
         <f>IF((C56=""),"",VLOOKUP(C56,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>38</v>
@@ -4100,32 +4126,32 @@
       <c r="K56" s="3">
         <v>0</v>
       </c>
-      <c r="L56" s="8" t="b">
-        <v>0</v>
+      <c r="L56" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M56" s="3">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C57" s="8">
         <v>3</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>85</v>
+      <c r="D57" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="E57" s="6" t="str">
         <f>IF((C57=""),"",VLOOKUP(C57,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>56</v>
@@ -4142,35 +4168,32 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="8" t="b">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M57" s="3">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C58" s="8">
         <v>3</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>86</v>
+      <c r="D58" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="E58" s="6" t="str">
         <f>IF((C58=""),"",VLOOKUP(C58,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>38</v>
@@ -4184,32 +4207,35 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="8" t="b">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M58" s="3">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="B59" s="3">
+        <v>61</v>
       </c>
       <c r="C59" s="8">
         <v>3</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>87</v>
+      <c r="D59" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E59" s="6" t="str">
         <f>IF((C59=""),"",VLOOKUP(C59,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>38</v>
@@ -4223,32 +4249,32 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="8" t="b">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M59" s="3">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B60" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C60" s="8">
         <v>3</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>89</v>
+      <c r="D60" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="E60" s="6" t="str">
         <f>IF((C60=""),"",VLOOKUP(C60,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>56</v>
@@ -4265,35 +4291,32 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="8" t="b">
-        <v>0</v>
+      <c r="L60" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M60" s="3">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C61" s="8">
         <v>3</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>90</v>
+      <c r="D61" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E61" s="6" t="str">
         <f>IF((C61=""),"",VLOOKUP(C61,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>38</v>
@@ -4307,64 +4330,64 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="8" t="b">
-        <v>0</v>
+      <c r="L61" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M61" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="C62" s="8">
+        <v>65</v>
+      </c>
+      <c r="C62" s="21">
         <v>3</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>43</v>
+      <c r="D62" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="E62" s="6" t="str">
         <f>IF((C62=""),"",VLOOKUP(C62,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>Project Notification Decision</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I62" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="8" t="b">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M62" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B63" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C63" s="8">
         <v>3</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E63" s="6" t="str">
         <f>IF((C63=""),"",VLOOKUP(C63,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -4388,25 +4411,25 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="8" t="b">
-        <v>0</v>
+      <c r="L63" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M63" s="3">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B64" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C64" s="8">
         <v>3</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E64" s="6" t="str">
         <f>IF((C64=""),"",VLOOKUP(C64,Phases!$A$2:$B$4,2,FALSE))</f>
@@ -4430,178 +4453,16 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="8" t="b">
-        <v>0</v>
+      <c r="L64" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="M64" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="C65" s="8">
-        <v>3</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="6" t="str">
-        <f>IF((C65=""),"",VLOOKUP(C65,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Decision</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I65" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="C66" s="21">
-        <v>3</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="6" t="str">
-        <f>IF((C66=""),"",VLOOKUP(C66,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Decision</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2">
-        <v>10</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M66" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3">
-        <v>65</v>
-      </c>
-      <c r="C67" s="8">
-        <v>3</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="6" t="str">
-        <f>IF((C67=""),"",VLOOKUP(C67,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Decision</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I67" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
-        <v>65</v>
-      </c>
-      <c r="C68" s="8">
-        <v>3</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="6" t="str">
-        <f>IF((C68=""),"",VLOOKUP(C68,Phases!$A$2:$B$4,2,FALSE))</f>
-        <v>Project Notification Decision</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
-      <c r="L68" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68" s="3">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M68" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}"/>
-  <conditionalFormatting sqref="H1:H68">
+  <autoFilter ref="A1:M64" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}"/>
+  <conditionalFormatting sqref="H1:H64">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
       <formula>NOT(ISERROR(SEARCH("END",H1)))</formula>
     </cfRule>
@@ -4612,36 +4473,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94FEBB1-315A-4609-9BCC-2B9E16A284E8}">
-          <x14:formula1>
-            <xm:f>Lookups!$M$3:$M$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L68</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52DB5617-9AC6-42B3-A0A1-82418CF13405}">
           <x14:formula1>
             <xm:f>Lookups!$K$3:$K$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G68</xm:sqref>
+          <xm:sqref>G2:G64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65DF4310-1509-4DE8-8535-DCDB722824BD}">
           <x14:formula1>
             <xm:f>Lookups!$Q$3:$Q$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H68</xm:sqref>
+          <xm:sqref>H2:H64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E633788-78DC-4B8E-B8EE-32416443C2DA}">
           <x14:formula1>
             <xm:f>Lookups!$S$3:$S$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I68</xm:sqref>
+          <xm:sqref>I2:I64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{486DEDE7-BAAD-4F07-BF86-68CC65BA16B7}">
           <x14:formula1>
             <xm:f>Lookups!$I$3:$I$39</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F68</xm:sqref>
+          <xm:sqref>F2:F64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4674,13 +4529,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -4694,11 +4549,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>IF((B2=""),"",VLOOKUP(B2,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B2=""),"",VLOOKUP(B2,Events!$A$2:$D$64,4,FALSE))</f>
         <v>"Draft" Project Notification Initial Review</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -4712,11 +4567,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f>IF((B3=""),"",VLOOKUP(B3,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B3=""),"",VLOOKUP(B3,Events!$A$2:$D$64,4,FALSE))</f>
         <v>"Draft" Project Notification Initial Review</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -4730,11 +4585,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="str">
-        <f>IF((B4=""),"",VLOOKUP(B4,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B4=""),"",VLOOKUP(B4,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Withdrawn</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -4748,11 +4603,11 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f>IF((B5=""),"",VLOOKUP(B5,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B5=""),"",VLOOKUP(B5,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Notification Submission</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -4766,11 +4621,11 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="str">
-        <f>IF((B6=""),"",VLOOKUP(B6,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B6=""),"",VLOOKUP(B6,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Delegation of Decision</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -4784,11 +4639,11 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f>IF((B7=""),"",VLOOKUP(B7,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B7=""),"",VLOOKUP(B7,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Delegation of Decision</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -4802,11 +4657,11 @@
         <v>37</v>
       </c>
       <c r="C8" s="6" t="str">
-        <f>IF((B8=""),"",VLOOKUP(B8,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B8=""),"",VLOOKUP(B8,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="3">
         <v>8</v>
@@ -4820,11 +4675,11 @@
         <v>40</v>
       </c>
       <c r="C9" s="6" t="str">
-        <f>IF((B9=""),"",VLOOKUP(B9,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B9=""),"",VLOOKUP(B9,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Withdrawn</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3">
         <v>9</v>
@@ -4838,11 +4693,11 @@
         <v>65</v>
       </c>
       <c r="C10" s="6" t="str">
-        <f>IF((B10=""),"",VLOOKUP(B10,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B10=""),"",VLOOKUP(B10,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Decision: Project Notification</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
@@ -4856,11 +4711,11 @@
         <v>65</v>
       </c>
       <c r="C11" s="6" t="str">
-        <f>IF((B11=""),"",VLOOKUP(B11,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B11=""),"",VLOOKUP(B11,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Decision: Project Notification</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" s="3">
         <v>11</v>
@@ -4874,11 +4729,11 @@
         <v>65</v>
       </c>
       <c r="C12" s="6" t="str">
-        <f>IF((B12=""),"",VLOOKUP(B12,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B12=""),"",VLOOKUP(B12,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Decision: Project Notification</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3">
         <v>12</v>
@@ -4892,11 +4747,11 @@
         <v>58</v>
       </c>
       <c r="C13" s="6" t="str">
-        <f>IF((B13=""),"",VLOOKUP(B13,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B13=""),"",VLOOKUP(B13,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Notification Terminated s.39(d)</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3">
         <v>13</v>
@@ -4910,11 +4765,11 @@
         <v>61</v>
       </c>
       <c r="C14" s="6" t="str">
-        <f>IF((B14=""),"",VLOOKUP(B14,Events!$A$2:$D$68,4,FALSE))</f>
+        <f>IF((B14=""),"",VLOOKUP(B14,Events!$A$2:$D$64,4,FALSE))</f>
         <v>Project Withdrawn</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3">
         <v>14</v>
@@ -4927,7 +4782,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{104E34E7-1558-4F0E-B347-AA979B498781}">
           <x14:formula1>
-            <xm:f>Events!$A$2:$A$68</xm:f>
+            <xm:f>Events!$A$2:$A$64</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B14</xm:sqref>
         </x14:dataValidation>
@@ -4941,7 +4796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -4965,19 +4820,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -4995,13 +4850,13 @@
         <v>Initial Review of "Draft" Project Notification is POSITIVE</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -5019,13 +4874,13 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -5043,13 +4898,13 @@
         <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -5067,13 +4922,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -5091,13 +4946,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -5115,13 +4970,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -5139,13 +4994,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -5163,13 +5018,13 @@
         <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -5187,13 +5042,13 @@
         <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -5211,13 +5066,13 @@
         <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -5235,13 +5090,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G12" s="3">
         <v>15</v>
@@ -5259,13 +5114,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G13" s="3">
         <v>16</v>
@@ -5283,13 +5138,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G14" s="3">
         <v>17</v>
@@ -5307,13 +5162,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G15" s="3">
         <v>18</v>
@@ -5331,13 +5186,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G16" s="3">
         <v>19</v>
@@ -5355,13 +5210,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G17" s="3">
         <v>20</v>
@@ -5379,13 +5234,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G18" s="3">
         <v>21</v>
@@ -5403,13 +5258,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G19" s="3">
         <v>22</v>
@@ -5427,13 +5282,13 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G20" s="3">
         <v>23</v>
@@ -5451,13 +5306,13 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G21" s="3">
         <v>24</v>
@@ -5475,13 +5330,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="G22" s="3">
         <v>25</v>
@@ -5499,13 +5354,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G23" s="3">
         <v>26</v>
@@ -5523,13 +5378,13 @@
         <v>More Information Needed</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G24" s="3">
         <v>27</v>
@@ -5547,13 +5402,13 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G25" s="3">
         <v>28</v>
@@ -5571,13 +5426,13 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G26" s="3">
         <v>29</v>
@@ -5595,13 +5450,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G27" s="3">
         <v>30</v>
@@ -5619,13 +5474,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G28" s="3">
         <v>31</v>
@@ -5643,13 +5498,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G29" s="3">
         <v>32</v>
@@ -5667,13 +5522,13 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G30" s="3">
         <v>33</v>
@@ -5691,13 +5546,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G31" s="3">
         <v>34</v>
@@ -5715,13 +5570,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G32" s="3">
         <v>35</v>
@@ -5739,13 +5594,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G33" s="3">
         <v>36</v>
@@ -5763,13 +5618,13 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" s="3">
         <v>37</v>
@@ -5848,7 +5703,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5857,11 +5712,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -5869,15 +5724,15 @@
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -5934,7 +5789,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>34</v>
@@ -5943,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>35</v>
@@ -5954,10 +5809,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -5975,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>38</v>
@@ -5986,22 +5841,22 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>48</v>
@@ -6009,41 +5864,41 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>34</v>
@@ -6055,29 +5910,29 @@
         <v>75</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>34</v>
@@ -6086,12 +5941,12 @@
         <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>34</v>
@@ -6103,7 +5958,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>34</v>
@@ -6115,7 +5970,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>75</v>
@@ -6127,7 +5982,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>75</v>
@@ -6139,13 +5994,13 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O15" s="9"/>
     </row>
@@ -6154,10 +6009,10 @@
         <v>45</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
@@ -6165,7 +6020,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
@@ -6181,7 +6036,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
@@ -6189,7 +6044,7 @@
         <v>41</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -6213,7 +6068,7 @@
         <v>41</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -6221,7 +6076,7 @@
         <v>41</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
@@ -6285,7 +6140,7 @@
         <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -6293,7 +6148,7 @@
         <v>56</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -6306,39 +6161,39 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>45</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61FEF4-C16C-4864-9E9D-20B7BD366ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A62832-96E7-43CD-871B-A34BBA8BFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="1" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="199">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -656,15 +656,6 @@
     <t>addPhase "Revised Project Notification Intake"(copies of the origal PHASEs)</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Intake", "legislated": false }</t>
-  </si>
-  <si>
-    <t>addPhase "Revised Project Notification Review"   (copies of the origal PHASEs)</t>
-  </si>
-  <si>
-    <t>addPhase "Revised Project Notification Decision" (copies of the origal PHASEs)</t>
-  </si>
-  <si>
     <t>CreateWork</t>
   </si>
   <si>
@@ -806,12 +797,6 @@
     <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 21 }</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Review", "legislated": false }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Decision","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Decision", "legislated": false }</t>
-  </si>
-  <si>
     <t>MultipleDays</t>
   </si>
   <si>
@@ -825,6 +810,9 @@
   </si>
   <si>
     <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Intake", "legislated": false },{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Review", "legislated": false },{"phase_name":"Project Notification Decision","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Decision", "legislated": false }]</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789B1A8-4095-496B-ABDA-23EBF7B52DFC}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1491,7 +1479,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -1520,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1549,7 +1537,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -1578,7 +1566,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1886,7 +1874,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
@@ -1895,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -1934,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
@@ -1973,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -2012,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
@@ -2051,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M5" s="3">
         <v>4</v>
@@ -2090,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
@@ -2129,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
@@ -2168,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -2207,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M9" s="3">
         <v>8</v>
@@ -2246,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
@@ -2285,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M11" s="3">
         <v>10</v>
@@ -2327,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M12" s="3">
         <v>11</v>
@@ -2369,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M13" s="3">
         <v>12</v>
@@ -2411,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M14" s="3">
         <v>13</v>
@@ -2453,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M15" s="3">
         <v>14</v>
@@ -2492,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M16" s="3">
         <v>15</v>
@@ -2531,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M17" s="3">
         <v>16</v>
@@ -2573,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M18" s="3">
         <v>17</v>
@@ -2612,7 +2600,7 @@
         <v>30</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M19" s="3">
         <v>18</v>
@@ -2654,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M20" s="3">
         <v>19</v>
@@ -2696,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M21" s="3">
         <v>20</v>
@@ -2738,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M22" s="3">
         <v>21</v>
@@ -2780,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M23" s="3">
         <v>22</v>
@@ -2819,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M24" s="3">
         <v>23</v>
@@ -2858,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M25" s="3">
         <v>24</v>
@@ -2897,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M26" s="3">
         <v>25</v>
@@ -2939,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M27" s="3">
         <v>26</v>
@@ -2981,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M28" s="3">
         <v>27</v>
@@ -3020,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M29" s="3">
         <v>28</v>
@@ -3062,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M30" s="3">
         <v>29</v>
@@ -3104,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M31" s="3">
         <v>30</v>
@@ -3146,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M32" s="3">
         <v>32</v>
@@ -3188,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M33" s="3">
         <v>33</v>
@@ -3230,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M34" s="3">
         <v>35</v>
@@ -3272,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M35" s="3">
         <v>36</v>
@@ -3311,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M36" s="3">
         <v>37</v>
@@ -3353,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M37" s="3">
         <v>38</v>
@@ -3395,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M38" s="3">
         <v>39</v>
@@ -3434,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M39" s="3">
         <v>40</v>
@@ -3476,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M40" s="3">
         <v>41</v>
@@ -3518,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M41" s="3">
         <v>42</v>
@@ -3557,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M42" s="3">
         <v>43</v>
@@ -3596,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M43" s="3">
         <v>44</v>
@@ -3635,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M44" s="3">
         <v>45</v>
@@ -3674,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M45" s="3">
         <v>46</v>
@@ -3716,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M46" s="3">
         <v>47</v>
@@ -3755,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M47" s="3">
         <v>48</v>
@@ -3794,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M48" s="3">
         <v>49</v>
@@ -3836,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M49" s="3">
         <v>50</v>
@@ -3878,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M50" s="3">
         <v>51</v>
@@ -3920,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M51" s="3">
         <v>53</v>
@@ -3962,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M52" s="3">
         <v>54</v>
@@ -4004,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M53" s="3">
         <v>56</v>
@@ -4046,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M54" s="3">
         <v>57</v>
@@ -4085,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M55" s="3">
         <v>58</v>
@@ -4127,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M56" s="3">
         <v>59</v>
@@ -4169,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M57" s="3">
         <v>60</v>
@@ -4208,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M58" s="3">
         <v>61</v>
@@ -4250,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M59" s="3">
         <v>62</v>
@@ -4292,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M60" s="3">
         <v>63</v>
@@ -4331,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M61" s="3">
         <v>64</v>
@@ -4370,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M62" s="3">
         <v>65</v>
@@ -4412,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M63" s="3">
         <v>66</v>
@@ -4454,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M64" s="3">
         <v>67</v>
@@ -4794,13 +4782,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4880,7 +4868,7 @@
         <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -4904,7 +4892,7 @@
         <v>122</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -5024,7 +5012,7 @@
         <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -5288,7 +5276,7 @@
         <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G20" s="3">
         <v>23</v>
@@ -5336,7 +5324,7 @@
         <v>145</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="G22" s="3">
         <v>25</v>
@@ -5344,103 +5332,103 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G23" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="G24" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="6" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Project Referred to Minister (s.11)</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="G25" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="6" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Project Referred to Minister (s.11)</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G26" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="8">
         <v>12</v>
@@ -5450,21 +5438,21 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G27" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="8">
         <v>12</v>
@@ -5474,69 +5462,69 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G28" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G29" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="6" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G30" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="8">
         <v>13</v>
@@ -5546,21 +5534,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G31" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="8">
         <v>13</v>
@@ -5570,80 +5558,32 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G32" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>36</v>
-      </c>
-      <c r="B33" s="8">
-        <v>13</v>
-      </c>
-      <c r="C33" s="6" t="str">
-        <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
         <v>37</v>
       </c>
-      <c r="B34" s="8">
-        <v>13</v>
-      </c>
-      <c r="C34" s="6" t="str">
-        <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D38"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G34" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
+  <autoFilter ref="A1:G32" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5652,7 +5592,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B34</xm:sqref>
+          <xm:sqref>B2:B32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5703,7 +5643,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5712,11 +5652,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -5728,11 +5668,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -5798,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>35</v>
@@ -5809,10 +5749,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -5830,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>38</v>
@@ -5841,22 +5781,22 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>48</v>
@@ -5864,24 +5804,24 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>34</v>
@@ -5893,12 +5833,12 @@
         <v>53</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>34</v>
@@ -5910,29 +5850,29 @@
         <v>75</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>34</v>
@@ -5941,12 +5881,12 @@
         <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>34</v>
@@ -5958,7 +5898,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>34</v>
@@ -5970,7 +5910,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>75</v>
@@ -5982,7 +5922,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>75</v>
@@ -5994,7 +5934,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>79</v>
@@ -6020,7 +5960,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
@@ -6044,7 +5984,7 @@
         <v>41</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -6068,7 +6008,7 @@
         <v>41</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -6076,7 +6016,7 @@
         <v>41</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
@@ -6140,7 +6080,7 @@
         <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -6148,7 +6088,7 @@
         <v>56</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -6161,39 +6101,39 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>45</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A62832-96E7-43CD-871B-A34BBA8BFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8914705E-4829-4CDA-8443-562732122CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$M$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="197">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -584,9 +584,6 @@
     <t>Add a copy of "Submission of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +14</t>
   </si>
   <si>
-    <t>Add a copy of "Initial Review of "Draft" Initial Project Description" to thisPhase at thisEventACTUAL +21</t>
-  </si>
-  <si>
     <t>SetPhasesStatus</t>
   </si>
   <si>
@@ -791,12 +788,6 @@
     <t>{"start_date_locked": true}</t>
   </si>
   <si>
-    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 21 }</t>
-  </si>
-  <si>
     <t>MultipleDays</t>
   </si>
   <si>
@@ -813,6 +804,9 @@
   </si>
   <si>
     <t>[{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Intake", "legislated": false },{"phase_name":"Project Notification Review","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Review", "legislated": false },{"phase_name":"Project Notification Decision","work_type_id": 1, "ea_act_id": 3, "new_name": "Revised Project Notification Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 },{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 7 }]</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -1508,7 +1502,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1537,7 +1531,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -1566,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1831,7 +1825,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1868,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
@@ -1883,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -1922,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
@@ -1961,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -2000,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
@@ -2039,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M5" s="3">
         <v>4</v>
@@ -2078,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
@@ -2117,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
@@ -2156,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -2195,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M9" s="3">
         <v>8</v>
@@ -2234,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
@@ -2273,7 +2267,7 @@
         <v>30</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M11" s="3">
         <v>10</v>
@@ -2315,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M12" s="3">
         <v>11</v>
@@ -2357,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M13" s="3">
         <v>12</v>
@@ -2399,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M14" s="3">
         <v>13</v>
@@ -2441,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M15" s="3">
         <v>14</v>
@@ -2480,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M16" s="3">
         <v>15</v>
@@ -2519,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M17" s="3">
         <v>16</v>
@@ -2561,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M18" s="3">
         <v>17</v>
@@ -2600,7 +2594,7 @@
         <v>30</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M19" s="3">
         <v>18</v>
@@ -2642,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M20" s="3">
         <v>19</v>
@@ -2684,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M21" s="3">
         <v>20</v>
@@ -2726,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M22" s="3">
         <v>21</v>
@@ -2768,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M23" s="3">
         <v>22</v>
@@ -2807,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M24" s="3">
         <v>23</v>
@@ -2846,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M25" s="3">
         <v>24</v>
@@ -2885,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M26" s="3">
         <v>25</v>
@@ -2927,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M27" s="3">
         <v>26</v>
@@ -2969,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M28" s="3">
         <v>27</v>
@@ -3008,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M29" s="3">
         <v>28</v>
@@ -3050,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M30" s="3">
         <v>29</v>
@@ -3092,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M31" s="3">
         <v>30</v>
@@ -3134,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M32" s="3">
         <v>32</v>
@@ -3176,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M33" s="3">
         <v>33</v>
@@ -3218,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M34" s="3">
         <v>35</v>
@@ -3260,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M35" s="3">
         <v>36</v>
@@ -3299,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M36" s="3">
         <v>37</v>
@@ -3341,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M37" s="3">
         <v>38</v>
@@ -3383,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M38" s="3">
         <v>39</v>
@@ -3422,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M39" s="3">
         <v>40</v>
@@ -3464,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M40" s="3">
         <v>41</v>
@@ -3506,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M41" s="3">
         <v>42</v>
@@ -3545,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M42" s="3">
         <v>43</v>
@@ -3584,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M43" s="3">
         <v>44</v>
@@ -3623,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M44" s="3">
         <v>45</v>
@@ -3662,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M45" s="3">
         <v>46</v>
@@ -3704,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M46" s="3">
         <v>47</v>
@@ -3743,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M47" s="3">
         <v>48</v>
@@ -3782,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M48" s="3">
         <v>49</v>
@@ -3824,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M49" s="3">
         <v>50</v>
@@ -3866,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M50" s="3">
         <v>51</v>
@@ -3908,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M51" s="3">
         <v>53</v>
@@ -3950,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M52" s="3">
         <v>54</v>
@@ -3992,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M53" s="3">
         <v>56</v>
@@ -4034,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M54" s="3">
         <v>57</v>
@@ -4073,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M55" s="3">
         <v>58</v>
@@ -4115,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M56" s="3">
         <v>59</v>
@@ -4157,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M57" s="3">
         <v>60</v>
@@ -4196,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M58" s="3">
         <v>61</v>
@@ -4238,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M59" s="3">
         <v>62</v>
@@ -4280,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M60" s="3">
         <v>63</v>
@@ -4319,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M61" s="3">
         <v>64</v>
@@ -4358,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M62" s="3">
         <v>65</v>
@@ -4400,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M63" s="3">
         <v>66</v>
@@ -4442,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M64" s="3">
         <v>67</v>
@@ -4500,7 +4494,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:A14"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4782,13 +4776,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4868,7 +4862,7 @@
         <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -4876,31 +4870,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
         <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>IF((B4=""),"",VLOOKUP(B4,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Initial Review of "Draft" Project Notification is NEGATIVE</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
@@ -4910,21 +4904,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>3</v>
@@ -4934,21 +4928,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8">
         <v>3</v>
@@ -4958,117 +4952,117 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>Starts the "clock" for Project Notification</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="G8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>IF((B9=""),"",VLOOKUP(B9,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Starts the "clock" for Project Notification</v>
+        <v>Minister is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="G9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>IF((B10=""),"",VLOOKUP(B10,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Minister is delegated to make the final Project Notification Decision</v>
+        <v>CEAO is delegated to make the final Project Notification Decision</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6" t="str">
         <f>IF((B11=""),"",VLOOKUP(B11,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>CEAO is delegated to make the final Project Notification Decision</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G11" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>7</v>
@@ -5078,21 +5072,21 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G12" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8">
         <v>7</v>
@@ -5102,21 +5096,21 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G13" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8">
         <v>7</v>
@@ -5126,45 +5120,45 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G14" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>IF((B15=""),"",VLOOKUP(B15,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="8">
         <v>8</v>
@@ -5174,21 +5168,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G16" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8">
         <v>8</v>
@@ -5198,21 +5192,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G17" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8">
         <v>8</v>
@@ -5222,45 +5216,45 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G18" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
+        <v>No Further Review Required</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="G19" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="8">
         <v>9</v>
@@ -5270,69 +5264,69 @@
         <v>No Further Review Required</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="G20" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="6" t="str">
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>No Further Review Required</v>
+        <v>More Information Needed</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="G21" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>More Information Needed</v>
+        <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G22" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="8">
         <v>11</v>
@@ -5342,45 +5336,45 @@
         <v>Project Referred to Minister (s.11)</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="G23" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Project Referred to Minister (s.11)</v>
+        <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G24" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8">
         <v>12</v>
@@ -5390,21 +5384,21 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G25" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="8">
         <v>12</v>
@@ -5414,21 +5408,21 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G26" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8">
         <v>12</v>
@@ -5438,45 +5432,45 @@
         <v>Project Notification is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G27" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Project Notification is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="8">
         <v>13</v>
@@ -5486,21 +5480,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G29" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="8">
         <v>13</v>
@@ -5510,21 +5504,21 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G30" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="8">
         <v>13</v>
@@ -5534,41 +5528,20 @@
         <v>Proponent withdraws Submission from the Project Notification process</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G31" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>37</v>
-      </c>
-      <c r="B32" s="8">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6" t="str">
-        <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$14,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Project Notification process</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="3">
-        <v>37</v>
-      </c>
+      <c r="D32"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33"/>
@@ -5579,11 +5552,8 @@
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G32" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
+  <autoFilter ref="A1:G31" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5592,7 +5562,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B32</xm:sqref>
+          <xm:sqref>B2:B31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5643,7 +5613,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5652,11 +5622,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -5668,11 +5638,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -5738,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>35</v>
@@ -5749,10 +5719,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -5770,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>38</v>
@@ -5781,22 +5751,22 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>48</v>
@@ -5804,24 +5774,24 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>34</v>
@@ -5833,12 +5803,12 @@
         <v>53</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>34</v>
@@ -5850,29 +5820,29 @@
         <v>75</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>34</v>
@@ -5881,12 +5851,12 @@
         <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>34</v>
@@ -5898,7 +5868,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>34</v>
@@ -5910,7 +5880,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>75</v>
@@ -5922,7 +5892,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>75</v>
@@ -5934,7 +5904,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>79</v>
@@ -5960,7 +5930,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
@@ -5984,7 +5954,7 @@
         <v>41</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -6008,7 +5978,7 @@
         <v>41</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -6016,7 +5986,7 @@
         <v>41</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
@@ -6080,7 +6050,7 @@
         <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -6088,7 +6058,7 @@
         <v>56</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -6101,39 +6071,39 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>45</v>

--- a/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/project_notification/001-Project_Notification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\project_notification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8914705E-4829-4CDA-8443-562732122CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF2470-BD0F-46B6-923B-07802F871CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -807,6 +807,12 @@
   </si>
   <si>
     <t>[{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Project Notification", "start_at": 14 },{"phase_name":"Project Notification Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "\"Draft\" Project Notification Initial Review", "start_at": 7 }]</t>
+  </si>
+  <si>
+    <t>{"all_future_phases": false}</t>
+  </si>
+  <si>
+    <t>{"all_future_events": false}</t>
   </si>
 </sst>
 </file>
@@ -4779,10 +4785,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4886,7 +4892,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="G4" s="3">
         <v>4</v>
@@ -4910,7 +4916,7 @@
         <v>126</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
@@ -5054,7 +5060,7 @@
         <v>123</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="G11" s="3">
         <v>15</v>
@@ -5078,7 +5084,7 @@
         <v>126</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="G12" s="3">
         <v>16</v>
@@ -5150,7 +5156,7 @@
         <v>123</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="G15" s="3">
         <v>19</v>
@@ -5174,7 +5180,7 @@
         <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="G16" s="3">
         <v>20</v>
@@ -5366,7 +5372,7 @@
         <v>123</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="G24" s="3">
         <v>30</v>
@@ -5390,7 +5396,7 @@
         <v>126</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="G25" s="3">
         <v>31</v>
@@ -5462,7 +5468,7 @@
         <v>123</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="G28" s="3">
         <v>34</v>
@@ -5486,7 +5492,7 @@
         <v>126</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="G29" s="3">
         <v>35</v>
